--- a/WIP/Documents/Report 3/DDL_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/DDL_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="674">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1169,9 +1169,6 @@
     <t>Check "Story" tab</t>
   </si>
   <si>
-    <t>Check "Timeline" tab</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to the Edit Project page
 2. Click Story tab
 </t>
@@ -1179,16 +1176,6 @@
   <si>
     <t xml:space="preserve">1. The Edit Project page is displayed
 2. Content of Story tab is displayed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to the Edit Project page
-2. Click Timeline tab
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
 </t>
   </si>
   <si>
@@ -1282,9 +1269,6 @@
   </si>
   <si>
     <t>Check "Comment" tab</t>
-  </si>
-  <si>
-    <t>Check "Schedule" tab</t>
   </si>
   <si>
     <t>Check "List backer" tab</t>
@@ -1418,16 +1402,6 @@
   <si>
     <t xml:space="preserve">1. The Project detail page is displayed
 2. Content of Comment tab is displayed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Project detail page is displayed
-2. Content of Schedule tab is displayed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to the Project detail page
-2. Click Shedule tab
 </t>
   </si>
   <si>
@@ -4935,6 +4909,25 @@
     <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4986,25 +4979,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5463,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5482,13 +5456,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5499,11 +5473,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="221" t="s">
+      <c r="C4" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5515,11 +5489,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -5528,15 +5502,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="223" t="str">
+      <c r="C6" s="230" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -5545,10 +5519,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="222"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5710,39 +5684,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227" t="str">
+      <c r="C3" s="233"/>
+      <c r="D3" s="234" t="str">
         <f>Cover!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="226"/>
-      <c r="D4" s="227" t="str">
+      <c r="C4" s="233"/>
+      <c r="D4" s="234" t="str">
         <f>Cover!C5</f>
         <v>DDL</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="224" t="s">
+      <c r="B5" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="225" t="s">
+      <c r="C5" s="231"/>
+      <c r="D5" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -5920,15 +5894,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -5944,15 +5918,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="227" t="str">
+      <c r="C3" s="234" t="str">
         <f>Cover!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228" t="s">
+      <c r="D3" s="234"/>
+      <c r="E3" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="228"/>
+      <c r="F3" s="235"/>
       <c r="G3" s="10" t="s">
         <v>107</v>
       </c>
@@ -5962,15 +5936,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="227" t="str">
+      <c r="C4" s="234" t="str">
         <f>Cover!C5</f>
         <v>DDL</v>
       </c>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228" t="s">
+      <c r="D4" s="234"/>
+      <c r="E4" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="228"/>
+      <c r="F4" s="235"/>
       <c r="G4" s="10" t="s">
         <v>106</v>
       </c>
@@ -5980,15 +5954,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="227" t="str">
+      <c r="C5" s="234" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="227"/>
-      <c r="E5" s="228" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="228"/>
+      <c r="F5" s="235"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -5997,12 +5971,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6075,7 +6049,7 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -6083,7 +6057,7 @@
       </c>
       <c r="H11" s="77">
         <f>User_Function!E6</f>
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6131,7 +6105,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -6139,7 +6113,7 @@
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6231,11 +6205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6531,10 +6505,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW175"/>
+  <dimension ref="A1:IW173"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -6813,14 +6787,14 @@
       <c r="A2" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
       <c r="H2" s="151" t="s">
         <v>22</v>
       </c>
@@ -7073,14 +7047,14 @@
       <c r="A3" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="151" t="s">
         <v>24</v>
       </c>
@@ -7333,14 +7307,14 @@
       <c r="A4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="240" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
       <c r="H4" s="151" t="s">
         <v>27</v>
       </c>
@@ -7600,11 +7574,11 @@
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="234" t="s">
+      <c r="E5" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
       <c r="H5" s="152" t="s">
         <v>26</v>
       </c>
@@ -7855,27 +7829,27 @@
     </row>
     <row r="6" spans="1:257" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="131">
-        <f>COUNTIF(F11:G334,"Pass")</f>
+        <f>COUNTIF(F11:G332,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="101">
-        <f>COUNTIF(F11:G781,"Fail")</f>
+        <f>COUNTIF(F11:G779,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D6" s="102">
-        <f>COUNTIF(F11:G781,"N/A")</f>
+        <f>COUNTIF(F11:G779,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="235">
-        <f>COUNTA(A11:A338)*2</f>
-        <v>254</v>
-      </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
+      <c r="E6" s="242">
+        <f>COUNTA(A11:A336)*2</f>
+        <v>250</v>
+      </c>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -9166,7 +9140,7 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="238"/>
+      <c r="I11" s="220"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -9940,10 +9914,10 @@
         <v>62</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -10993,7 +10967,7 @@
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="239"/>
+      <c r="I18" s="221"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
@@ -11247,7 +11221,7 @@
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="240"/>
+      <c r="I19" s="222"/>
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
@@ -11498,7 +11472,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D20" s="91" t="s">
         <v>187</v>
@@ -11758,7 +11732,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D21" s="91" t="s">
         <v>82</v>
@@ -12018,7 +11992,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>84</v>
@@ -12278,7 +12252,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D23" s="124" t="s">
         <v>86</v>
@@ -16077,7 +16051,7 @@
     </row>
     <row r="45" spans="1:250" ht="14.25" customHeight="1">
       <c r="A45" s="168" t="str">
-        <f t="shared" ref="A45:A52" si="5">IF(OR(B45&lt;&gt;"",D45&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A45:A47" si="5">IF(OR(B45&lt;&gt;"",D45&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-35]</v>
       </c>
       <c r="B45" s="186" t="s">
@@ -16126,10 +16100,10 @@
         <v>241</v>
       </c>
       <c r="C47" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="117" t="s">
         <v>243</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>244</v>
       </c>
       <c r="E47" s="169"/>
       <c r="F47" s="117"/>
@@ -16140,17 +16114,17 @@
     </row>
     <row r="48" spans="1:250" ht="14.25" customHeight="1">
       <c r="A48" s="168" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(B48&lt;&gt;"",D48&lt;E44&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="186" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C48" s="173" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E48" s="169"/>
       <c r="F48" s="117"/>
@@ -16161,17 +16135,17 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="168" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;E45&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-39]</v>
       </c>
       <c r="B49" s="186" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C49" s="173" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="117" t="s">
         <v>249</v>
-      </c>
-      <c r="D49" s="117" t="s">
-        <v>250</v>
       </c>
       <c r="E49" s="169"/>
       <c r="F49" s="117"/>
@@ -16182,17 +16156,17 @@
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
       <c r="A50" s="168" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(B50&lt;&gt;"",D50&lt;E46&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="186" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C50" s="173" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E50" s="169"/>
       <c r="F50" s="117"/>
@@ -16203,17 +16177,17 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="168" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(B51&lt;&gt;"",D51&lt;E47&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-41]</v>
       </c>
       <c r="B51" s="186" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C51" s="173" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="117" t="s">
         <v>255</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>256</v>
       </c>
       <c r="E51" s="169"/>
       <c r="F51" s="117"/>
@@ -16223,38 +16197,38 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A52" s="168" t="str">
-        <f t="shared" si="5"/>
-        <v>[User_login-42]</v>
-      </c>
-      <c r="B52" s="186" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" s="173" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="169"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="170"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="167" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="167"/>
+      <c r="I52" s="167"/>
       <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A53" s="167"/>
-      <c r="B53" s="167" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
+      <c r="A53" s="168" t="str">
+        <f>IF(OR(B53&lt;&gt;"",D53&lt;E48&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-43]</v>
+      </c>
+      <c r="B53" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="173" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="117" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" s="169"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="170"/>
       <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1">
@@ -16263,13 +16237,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="186" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C54" s="173" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E54" s="169"/>
       <c r="F54" s="117"/>
@@ -16284,13 +16258,13 @@
         <v>[User_login-45]</v>
       </c>
       <c r="B55" s="186" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C55" s="173" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E55" s="169"/>
       <c r="F55" s="117"/>
@@ -16305,13 +16279,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="186" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C56" s="173" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E56" s="169"/>
       <c r="F56" s="117"/>
@@ -16322,17 +16296,17 @@
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
       <c r="A57" s="168" t="str">
-        <f>IF(OR(B57&lt;&gt;"",D57&lt;E52&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B57&lt;&gt;"",D57&lt;E49&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-47]</v>
       </c>
       <c r="B57" s="186" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C57" s="173" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E57" s="169"/>
       <c r="F57" s="117"/>
@@ -16347,13 +16321,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="186" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C58" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E58" s="169"/>
       <c r="F58" s="117"/>
@@ -16364,17 +16338,17 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="168" t="str">
-        <f>IF(OR(B59&lt;&gt;"",D59&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A59:A60" si="6">IF(OR(B59&lt;&gt;"",D59&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-49]</v>
       </c>
       <c r="B59" s="186" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C59" s="173" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D59" s="117" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E59" s="169"/>
       <c r="F59" s="117"/>
@@ -16385,17 +16359,17 @@
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
       <c r="A60" s="168" t="str">
-        <f t="shared" ref="A60:A61" si="6">IF(OR(B60&lt;&gt;"",D60&lt;E52&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="6"/>
         <v>[User_login-50]</v>
       </c>
       <c r="B60" s="186" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C60" s="173" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D60" s="117" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E60" s="169"/>
       <c r="F60" s="117"/>
@@ -16406,17 +16380,17 @@
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1">
       <c r="A61" s="168" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B61&lt;&gt;"",D61&lt;E53&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-51]</v>
       </c>
       <c r="B61" s="186" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C61" s="173" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" s="117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E61" s="169"/>
       <c r="F61" s="117"/>
@@ -16427,17 +16401,17 @@
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="168" t="str">
-        <f>IF(OR(B62&lt;&gt;"",D62&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B62&lt;&gt;"",D62&lt;E55&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-52]</v>
       </c>
       <c r="B62" s="186" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C62" s="173" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D62" s="117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E62" s="169"/>
       <c r="F62" s="117"/>
@@ -16448,14 +16422,14 @@
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1">
       <c r="A63" s="168" t="str">
-        <f>IF(OR(B63&lt;&gt;"",D63&lt;E55&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B63&lt;&gt;"",D63&lt;E49&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-53]</v>
       </c>
       <c r="B63" s="186" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C63" s="173" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D63" s="117" t="s">
         <v>297</v>
@@ -16468,18 +16442,18 @@
       <c r="J63" s="105"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A64" s="168" t="str">
-        <f>IF(OR(B64&lt;&gt;"",D64&lt;E56&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A64" s="190" t="str">
+        <f>IF(OR(B64&lt;&gt;"",D64&lt;E50&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-54]</v>
       </c>
       <c r="B64" s="186" t="s">
-        <v>272</v>
-      </c>
-      <c r="C64" s="173" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="187" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="117" t="s">
-        <v>300</v>
+      <c r="D64" s="188" t="s">
+        <v>298</v>
       </c>
       <c r="E64" s="169"/>
       <c r="F64" s="117"/>
@@ -16490,17 +16464,17 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="168" t="str">
-        <f t="shared" ref="A65:A70" si="7">IF(OR(B65&lt;&gt;"",D65&lt;E50&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B65&lt;&gt;"",D65&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-55]</v>
       </c>
       <c r="B65" s="186" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C65" s="173" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E65" s="169"/>
       <c r="F65" s="117"/>
@@ -16511,59 +16485,59 @@
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1">
       <c r="A66" s="190" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(B66&lt;&gt;"",D66&lt;E52&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-56]</v>
       </c>
       <c r="B66" s="186" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C66" s="187" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D66" s="188" t="s">
-        <v>304</v>
-      </c>
-      <c r="E66" s="169"/>
+        <v>288</v>
+      </c>
+      <c r="E66" s="189"/>
       <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="170"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="183"/>
+      <c r="I66" s="184"/>
       <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="168" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(B67&lt;&gt;"",D67&lt;E53&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-57]</v>
       </c>
       <c r="B67" s="186" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C67" s="173" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>293</v>
-      </c>
-      <c r="E67" s="169"/>
+        <v>297</v>
+      </c>
+      <c r="E67" s="189"/>
       <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="170"/>
+      <c r="G67" s="188"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="184"/>
       <c r="J67" s="105"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1">
       <c r="A68" s="190" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(B68&lt;&gt;"",D68&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-58]</v>
       </c>
       <c r="B68" s="186" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C68" s="187" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="D68" s="188" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E68" s="189"/>
       <c r="F68" s="117"/>
@@ -16573,18 +16547,18 @@
       <c r="J68" s="105"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A69" s="168" t="str">
-        <f t="shared" si="7"/>
+      <c r="A69" s="190" t="str">
+        <f>IF(OR(B69&lt;&gt;"",D69&lt;E53&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-59]</v>
       </c>
       <c r="B69" s="186" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C69" s="173" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D69" s="117" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E69" s="189"/>
       <c r="F69" s="117"/>
@@ -16595,17 +16569,17 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1">
       <c r="A70" s="190" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(B70&lt;&gt;"",D70&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-60]</v>
       </c>
       <c r="B70" s="186" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C70" s="187" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="D70" s="188" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="E70" s="189"/>
       <c r="F70" s="117"/>
@@ -16615,74 +16589,74 @@
       <c r="J70" s="105"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A71" s="190" t="str">
-        <f>IF(OR(B71&lt;&gt;"",D71&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-61]</v>
-      </c>
-      <c r="B71" s="186" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="173" t="s">
-        <v>288</v>
-      </c>
-      <c r="D71" s="117" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="189"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="188"/>
-      <c r="H71" s="183"/>
-      <c r="I71" s="184"/>
+      <c r="A71" s="191"/>
+      <c r="B71" s="191" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="192"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="192"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="192"/>
+      <c r="H71" s="192"/>
+      <c r="I71" s="193"/>
       <c r="J71" s="105"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1">
       <c r="A72" s="190" t="str">
-        <f>IF(OR(B72&lt;&gt;"",D72&lt;E55&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B72&lt;&gt;"",D72&lt;E56&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-62]</v>
       </c>
       <c r="B72" s="186" t="s">
-        <v>268</v>
-      </c>
-      <c r="C72" s="187" t="s">
-        <v>289</v>
-      </c>
-      <c r="D72" s="188" t="s">
-        <v>290</v>
-      </c>
-      <c r="E72" s="189"/>
+        <v>306</v>
+      </c>
+      <c r="C72" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="117" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" s="169"/>
       <c r="F72" s="117"/>
-      <c r="G72" s="188"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="184"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="170"/>
       <c r="J72" s="105"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A73" s="191"/>
-      <c r="B73" s="191" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="192"/>
-      <c r="D73" s="192"/>
-      <c r="E73" s="192"/>
-      <c r="F73" s="192"/>
-      <c r="G73" s="192"/>
-      <c r="H73" s="192"/>
-      <c r="I73" s="193"/>
+      <c r="A73" s="190" t="str">
+        <f>IF(OR(B73&lt;&gt;"",D73&lt;E57&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-63]</v>
+      </c>
+      <c r="B73" s="186" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="173" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="117" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="169"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="170"/>
       <c r="J73" s="105"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1">
       <c r="A74" s="190" t="str">
-        <f>IF(OR(B74&lt;&gt;"",D74&lt;E57&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B74&lt;&gt;"",D74&lt;E58&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-64]</v>
       </c>
-      <c r="B74" s="186" t="s">
+      <c r="B74" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="C74" s="173" t="s">
+      <c r="D74" s="91" t="s">
         <v>313</v>
-      </c>
-      <c r="D74" s="117" t="s">
-        <v>314</v>
       </c>
       <c r="E74" s="169"/>
       <c r="F74" s="117"/>
@@ -16693,16 +16667,16 @@
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1">
       <c r="A75" s="190" t="str">
-        <f>IF(OR(B75&lt;&gt;"",D75&lt;E58&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B75&lt;&gt;"",D75&lt;E59&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-65]</v>
       </c>
-      <c r="B75" s="186" t="s">
-        <v>312</v>
-      </c>
-      <c r="C75" s="173" t="s">
+      <c r="B75" s="91" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="194" t="s">
         <v>316</v>
       </c>
       <c r="E75" s="169"/>
@@ -16713,8 +16687,8 @@
       <c r="J75" s="105"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A76" s="190" t="str">
-        <f t="shared" ref="A76:A77" si="8">IF(OR(B76&lt;&gt;"",D76&lt;E59&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A76" s="168" t="str">
+        <f t="shared" ref="A76:A84" si="7">IF(OR(B76&lt;&gt;"",D76&lt;E75&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-66]</v>
       </c>
       <c r="B76" s="91" t="s">
@@ -16734,8 +16708,8 @@
       <c r="J76" s="105"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A77" s="190" t="str">
-        <f t="shared" si="8"/>
+      <c r="A77" s="168" t="str">
+        <f t="shared" si="7"/>
         <v>[User_login-67]</v>
       </c>
       <c r="B77" s="91" t="s">
@@ -16744,8 +16718,8 @@
       <c r="C77" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="D77" s="194" t="s">
-        <v>322</v>
+      <c r="D77" s="171" t="s">
+        <v>319</v>
       </c>
       <c r="E77" s="169"/>
       <c r="F77" s="117"/>
@@ -16756,17 +16730,17 @@
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1">
       <c r="A78" s="168" t="str">
-        <f t="shared" ref="A78:A86" si="9">IF(OR(B78&lt;&gt;"",D78&lt;E77&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="7"/>
         <v>[User_login-68]</v>
       </c>
       <c r="B78" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="91" t="s">
+      <c r="D78" s="171" t="s">
         <v>324</v>
-      </c>
-      <c r="D78" s="91" t="s">
-        <v>325</v>
       </c>
       <c r="E78" s="169"/>
       <c r="F78" s="117"/>
@@ -16777,17 +16751,17 @@
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1">
       <c r="A79" s="168" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(OR(B79&lt;&gt;"",D79&lt;E78&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-69]</v>
       </c>
       <c r="B79" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="91" t="s">
+      <c r="D79" s="195" t="s">
         <v>327</v>
-      </c>
-      <c r="D79" s="171" t="s">
-        <v>325</v>
       </c>
       <c r="E79" s="169"/>
       <c r="F79" s="117"/>
@@ -16797,17 +16771,17 @@
       <c r="J79" s="105"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A80" s="168" t="str">
-        <f t="shared" si="9"/>
+      <c r="A80" s="190" t="str">
+        <f t="shared" si="7"/>
         <v>[User_login-70]</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="170" t="s">
         <v>329</v>
       </c>
-      <c r="D80" s="171" t="s">
+      <c r="D80" s="196" t="s">
         <v>330</v>
       </c>
       <c r="E80" s="169"/>
@@ -16818,17 +16792,17 @@
       <c r="J80" s="105"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A81" s="168" t="str">
-        <f>IF(OR(B81&lt;&gt;"",D81&lt;E80&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A81" s="190" t="str">
+        <f t="shared" si="7"/>
         <v>[User_login-71]</v>
       </c>
-      <c r="B81" s="91" t="s">
+      <c r="B81" s="124" t="s">
         <v>331</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="D81" s="195" t="s">
+      <c r="D81" s="172" t="s">
         <v>333</v>
       </c>
       <c r="E81" s="169"/>
@@ -16839,17 +16813,17 @@
       <c r="J81" s="105"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A82" s="190" t="str">
-        <f t="shared" si="9"/>
+      <c r="A82" s="168" t="str">
+        <f t="shared" si="7"/>
         <v>[User_login-72]</v>
       </c>
       <c r="B82" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="170" t="s">
+      <c r="C82" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D82" s="196" t="s">
+      <c r="D82" s="197" t="s">
         <v>336</v>
       </c>
       <c r="E82" s="169"/>
@@ -16860,74 +16834,74 @@
       <c r="J82" s="105"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A83" s="190" t="str">
-        <f t="shared" si="9"/>
-        <v>[User_login-73]</v>
-      </c>
-      <c r="B83" s="124" t="s">
-        <v>337</v>
-      </c>
-      <c r="C83" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="D83" s="172" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" s="169"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="119"/>
-      <c r="I83" s="170"/>
+      <c r="A83" s="182"/>
+      <c r="B83" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="181"/>
       <c r="J83" s="105"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1">
       <c r="A84" s="168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>[User_login-74]</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C84" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" s="197" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="169"/>
+        <v>352</v>
+      </c>
+      <c r="D84" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="118"/>
       <c r="F84" s="117"/>
       <c r="G84" s="117"/>
       <c r="H84" s="119"/>
-      <c r="I84" s="170"/>
+      <c r="I84" s="120"/>
       <c r="J84" s="105"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A85" s="182"/>
-      <c r="B85" s="182" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="179"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="179"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="181"/>
+      <c r="A85" s="168" t="str">
+        <f t="shared" ref="A85:A98" si="8">IF(OR(B85&lt;&gt;"",D85&lt;E84&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-75]</v>
+      </c>
+      <c r="B85" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="D85" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" s="118"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="120"/>
       <c r="J85" s="105"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1">
       <c r="A86" s="168" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>[User_login-76]</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C86" s="117" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D86" s="117" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E86" s="118"/>
       <c r="F86" s="117"/>
@@ -16938,17 +16912,17 @@
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1">
       <c r="A87" s="168" t="str">
-        <f t="shared" ref="A87:A100" si="10">IF(OR(B87&lt;&gt;"",D87&lt;E86&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="8"/>
         <v>[User_login-77]</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C87" s="117" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D87" s="117" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E87" s="118"/>
       <c r="F87" s="117"/>
@@ -16959,17 +16933,17 @@
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1">
       <c r="A88" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-78]</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C88" s="117" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D88" s="117" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E88" s="118"/>
       <c r="F88" s="117"/>
@@ -16980,17 +16954,17 @@
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1">
       <c r="A89" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-79]</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C89" s="117" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D89" s="117" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E89" s="118"/>
       <c r="F89" s="117"/>
@@ -17001,17 +16975,17 @@
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1">
       <c r="A90" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-80]</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C90" s="117" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D90" s="117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E90" s="118"/>
       <c r="F90" s="117"/>
@@ -17022,17 +16996,17 @@
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1">
       <c r="A91" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C91" s="117" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D91" s="117" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E91" s="118"/>
       <c r="F91" s="117"/>
@@ -17043,17 +17017,17 @@
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1">
       <c r="A92" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C92" s="117" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D92" s="117" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E92" s="118"/>
       <c r="F92" s="117"/>
@@ -17064,17 +17038,17 @@
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1">
       <c r="A93" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C93" s="117" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D93" s="117" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E93" s="118"/>
       <c r="F93" s="117"/>
@@ -17085,17 +17059,17 @@
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1">
       <c r="A94" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C94" s="117" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D94" s="117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E94" s="118"/>
       <c r="F94" s="117"/>
@@ -17106,17 +17080,17 @@
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1">
       <c r="A95" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-85]</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C95" s="117" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D95" s="117" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E95" s="118"/>
       <c r="F95" s="117"/>
@@ -17127,17 +17101,17 @@
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1">
       <c r="A96" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-86]</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C96" s="117" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E96" s="118"/>
       <c r="F96" s="117"/>
@@ -17146,61 +17120,541 @@
       <c r="I96" s="120"/>
       <c r="J96" s="105"/>
     </row>
-    <row r="97" spans="1:250" ht="14.25" customHeight="1">
+    <row r="97" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A97" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-87]</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C97" s="117" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>353</v>
-      </c>
-      <c r="E97" s="118"/>
+        <v>373</v>
+      </c>
+      <c r="E97" s="177"/>
       <c r="F97" s="117"/>
       <c r="G97" s="117"/>
-      <c r="H97" s="119"/>
-      <c r="I97" s="120"/>
+      <c r="H97" s="178"/>
+      <c r="I97" s="177"/>
       <c r="J97" s="105"/>
-    </row>
-    <row r="98" spans="1:250" ht="14.25" customHeight="1">
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
+      <c r="M97" s="105"/>
+      <c r="N97" s="105"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="105"/>
+      <c r="Q97" s="105"/>
+      <c r="R97" s="105"/>
+      <c r="S97" s="105"/>
+      <c r="T97" s="105"/>
+      <c r="U97" s="105"/>
+      <c r="V97" s="105"/>
+      <c r="W97" s="105"/>
+      <c r="X97" s="105"/>
+      <c r="Y97" s="105"/>
+      <c r="Z97" s="105"/>
+      <c r="AA97" s="105"/>
+      <c r="AB97" s="105"/>
+      <c r="AC97" s="105"/>
+      <c r="AD97" s="105"/>
+      <c r="AE97" s="105"/>
+      <c r="AF97" s="105"/>
+      <c r="AG97" s="105"/>
+      <c r="AH97" s="105"/>
+      <c r="AI97" s="105"/>
+      <c r="AJ97" s="105"/>
+      <c r="AK97" s="105"/>
+      <c r="AL97" s="105"/>
+      <c r="AM97" s="105"/>
+      <c r="AN97" s="105"/>
+      <c r="AO97" s="105"/>
+      <c r="AP97" s="105"/>
+      <c r="AQ97" s="105"/>
+      <c r="AR97" s="105"/>
+      <c r="AS97" s="105"/>
+      <c r="AT97" s="105"/>
+      <c r="AU97" s="105"/>
+      <c r="AV97" s="105"/>
+      <c r="AW97" s="105"/>
+      <c r="AX97" s="105"/>
+      <c r="AY97" s="105"/>
+      <c r="AZ97" s="105"/>
+      <c r="BA97" s="105"/>
+      <c r="BB97" s="105"/>
+      <c r="BC97" s="105"/>
+      <c r="BD97" s="105"/>
+      <c r="BE97" s="105"/>
+      <c r="BF97" s="105"/>
+      <c r="BG97" s="105"/>
+      <c r="BH97" s="105"/>
+      <c r="BI97" s="105"/>
+      <c r="BJ97" s="105"/>
+      <c r="BK97" s="105"/>
+      <c r="BL97" s="105"/>
+      <c r="BM97" s="105"/>
+      <c r="BN97" s="105"/>
+      <c r="BO97" s="105"/>
+      <c r="BP97" s="105"/>
+      <c r="BQ97" s="105"/>
+      <c r="BR97" s="105"/>
+      <c r="BS97" s="105"/>
+      <c r="BT97" s="105"/>
+      <c r="BU97" s="105"/>
+      <c r="BV97" s="105"/>
+      <c r="BW97" s="105"/>
+      <c r="BX97" s="105"/>
+      <c r="BY97" s="105"/>
+      <c r="BZ97" s="105"/>
+      <c r="CA97" s="105"/>
+      <c r="CB97" s="105"/>
+      <c r="CC97" s="105"/>
+      <c r="CD97" s="105"/>
+      <c r="CE97" s="105"/>
+      <c r="CF97" s="105"/>
+      <c r="CG97" s="105"/>
+      <c r="CH97" s="105"/>
+      <c r="CI97" s="105"/>
+      <c r="CJ97" s="105"/>
+      <c r="CK97" s="105"/>
+      <c r="CL97" s="105"/>
+      <c r="CM97" s="105"/>
+      <c r="CN97" s="105"/>
+      <c r="CO97" s="105"/>
+      <c r="CP97" s="105"/>
+      <c r="CQ97" s="105"/>
+      <c r="CR97" s="105"/>
+      <c r="CS97" s="105"/>
+      <c r="CT97" s="105"/>
+      <c r="CU97" s="105"/>
+      <c r="CV97" s="105"/>
+      <c r="CW97" s="105"/>
+      <c r="CX97" s="105"/>
+      <c r="CY97" s="105"/>
+      <c r="CZ97" s="105"/>
+      <c r="DA97" s="105"/>
+      <c r="DB97" s="105"/>
+      <c r="DC97" s="105"/>
+      <c r="DD97" s="105"/>
+      <c r="DE97" s="105"/>
+      <c r="DF97" s="105"/>
+      <c r="DG97" s="105"/>
+      <c r="DH97" s="105"/>
+      <c r="DI97" s="105"/>
+      <c r="DJ97" s="105"/>
+      <c r="DK97" s="105"/>
+      <c r="DL97" s="105"/>
+      <c r="DM97" s="105"/>
+      <c r="DN97" s="105"/>
+      <c r="DO97" s="105"/>
+      <c r="DP97" s="105"/>
+      <c r="DQ97" s="105"/>
+      <c r="DR97" s="105"/>
+      <c r="DS97" s="105"/>
+      <c r="DT97" s="105"/>
+      <c r="DU97" s="105"/>
+      <c r="DV97" s="105"/>
+      <c r="DW97" s="105"/>
+      <c r="DX97" s="105"/>
+      <c r="DY97" s="105"/>
+      <c r="DZ97" s="105"/>
+      <c r="EA97" s="105"/>
+      <c r="EB97" s="105"/>
+      <c r="EC97" s="105"/>
+      <c r="ED97" s="105"/>
+      <c r="EE97" s="105"/>
+      <c r="EF97" s="105"/>
+      <c r="EG97" s="105"/>
+      <c r="EH97" s="105"/>
+      <c r="EI97" s="105"/>
+      <c r="EJ97" s="105"/>
+      <c r="EK97" s="105"/>
+      <c r="EL97" s="105"/>
+      <c r="EM97" s="105"/>
+      <c r="EN97" s="105"/>
+      <c r="EO97" s="105"/>
+      <c r="EP97" s="105"/>
+      <c r="EQ97" s="105"/>
+      <c r="ER97" s="105"/>
+      <c r="ES97" s="105"/>
+      <c r="ET97" s="105"/>
+      <c r="EU97" s="105"/>
+      <c r="EV97" s="105"/>
+      <c r="EW97" s="105"/>
+      <c r="EX97" s="105"/>
+      <c r="EY97" s="105"/>
+      <c r="EZ97" s="105"/>
+      <c r="FA97" s="105"/>
+      <c r="FB97" s="105"/>
+      <c r="FC97" s="105"/>
+      <c r="FD97" s="105"/>
+      <c r="FE97" s="105"/>
+      <c r="FF97" s="105"/>
+      <c r="FG97" s="105"/>
+      <c r="FH97" s="105"/>
+      <c r="FI97" s="105"/>
+      <c r="FJ97" s="105"/>
+      <c r="FK97" s="105"/>
+      <c r="FL97" s="105"/>
+      <c r="FM97" s="105"/>
+      <c r="FN97" s="105"/>
+      <c r="FO97" s="105"/>
+      <c r="FP97" s="105"/>
+      <c r="FQ97" s="105"/>
+      <c r="FR97" s="105"/>
+      <c r="FS97" s="105"/>
+      <c r="FT97" s="105"/>
+      <c r="FU97" s="105"/>
+      <c r="FV97" s="105"/>
+      <c r="FW97" s="105"/>
+      <c r="FX97" s="105"/>
+      <c r="FY97" s="105"/>
+      <c r="FZ97" s="105"/>
+      <c r="GA97" s="105"/>
+      <c r="GB97" s="105"/>
+      <c r="GC97" s="105"/>
+      <c r="GD97" s="105"/>
+      <c r="GE97" s="105"/>
+      <c r="GF97" s="105"/>
+      <c r="GG97" s="105"/>
+      <c r="GH97" s="105"/>
+      <c r="GI97" s="105"/>
+      <c r="GJ97" s="105"/>
+      <c r="GK97" s="105"/>
+      <c r="GL97" s="105"/>
+      <c r="GM97" s="105"/>
+      <c r="GN97" s="105"/>
+      <c r="GO97" s="105"/>
+      <c r="GP97" s="105"/>
+      <c r="GQ97" s="105"/>
+      <c r="GR97" s="105"/>
+      <c r="GS97" s="105"/>
+      <c r="GT97" s="105"/>
+      <c r="GU97" s="105"/>
+      <c r="GV97" s="105"/>
+      <c r="GW97" s="105"/>
+      <c r="GX97" s="105"/>
+      <c r="GY97" s="105"/>
+      <c r="GZ97" s="105"/>
+      <c r="HA97" s="105"/>
+      <c r="HB97" s="105"/>
+      <c r="HC97" s="105"/>
+      <c r="HD97" s="105"/>
+      <c r="HE97" s="105"/>
+      <c r="HF97" s="105"/>
+      <c r="HG97" s="105"/>
+      <c r="HH97" s="105"/>
+      <c r="HI97" s="105"/>
+      <c r="HJ97" s="105"/>
+      <c r="HK97" s="105"/>
+      <c r="HL97" s="105"/>
+      <c r="HM97" s="105"/>
+      <c r="HN97" s="105"/>
+      <c r="HO97" s="105"/>
+      <c r="HP97" s="105"/>
+      <c r="HQ97" s="105"/>
+      <c r="HR97" s="105"/>
+      <c r="HS97" s="105"/>
+      <c r="HT97" s="105"/>
+      <c r="HU97" s="105"/>
+      <c r="HV97" s="105"/>
+      <c r="HW97" s="105"/>
+      <c r="HX97" s="105"/>
+      <c r="HY97" s="105"/>
+      <c r="HZ97" s="105"/>
+      <c r="IA97" s="105"/>
+      <c r="IB97" s="105"/>
+      <c r="IC97" s="105"/>
+      <c r="ID97" s="105"/>
+      <c r="IE97" s="105"/>
+      <c r="IF97" s="105"/>
+      <c r="IG97" s="105"/>
+      <c r="IH97" s="105"/>
+      <c r="II97" s="105"/>
+      <c r="IJ97" s="105"/>
+      <c r="IK97" s="105"/>
+      <c r="IL97" s="105"/>
+      <c r="IM97" s="105"/>
+      <c r="IN97" s="105"/>
+      <c r="IO97" s="105"/>
+      <c r="IP97" s="105"/>
+    </row>
+    <row r="98" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>[User_login-88]</v>
       </c>
       <c r="B98" s="117" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C98" s="117" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="D98" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="E98" s="118"/>
+        <v>374</v>
+      </c>
+      <c r="E98" s="177"/>
       <c r="F98" s="117"/>
       <c r="G98" s="117"/>
-      <c r="H98" s="119"/>
-      <c r="I98" s="120"/>
+      <c r="H98" s="178"/>
+      <c r="I98" s="177"/>
       <c r="J98" s="105"/>
+      <c r="K98" s="105"/>
+      <c r="L98" s="105"/>
+      <c r="M98" s="105"/>
+      <c r="N98" s="105"/>
+      <c r="O98" s="105"/>
+      <c r="P98" s="105"/>
+      <c r="Q98" s="105"/>
+      <c r="R98" s="105"/>
+      <c r="S98" s="105"/>
+      <c r="T98" s="105"/>
+      <c r="U98" s="105"/>
+      <c r="V98" s="105"/>
+      <c r="W98" s="105"/>
+      <c r="X98" s="105"/>
+      <c r="Y98" s="105"/>
+      <c r="Z98" s="105"/>
+      <c r="AA98" s="105"/>
+      <c r="AB98" s="105"/>
+      <c r="AC98" s="105"/>
+      <c r="AD98" s="105"/>
+      <c r="AE98" s="105"/>
+      <c r="AF98" s="105"/>
+      <c r="AG98" s="105"/>
+      <c r="AH98" s="105"/>
+      <c r="AI98" s="105"/>
+      <c r="AJ98" s="105"/>
+      <c r="AK98" s="105"/>
+      <c r="AL98" s="105"/>
+      <c r="AM98" s="105"/>
+      <c r="AN98" s="105"/>
+      <c r="AO98" s="105"/>
+      <c r="AP98" s="105"/>
+      <c r="AQ98" s="105"/>
+      <c r="AR98" s="105"/>
+      <c r="AS98" s="105"/>
+      <c r="AT98" s="105"/>
+      <c r="AU98" s="105"/>
+      <c r="AV98" s="105"/>
+      <c r="AW98" s="105"/>
+      <c r="AX98" s="105"/>
+      <c r="AY98" s="105"/>
+      <c r="AZ98" s="105"/>
+      <c r="BA98" s="105"/>
+      <c r="BB98" s="105"/>
+      <c r="BC98" s="105"/>
+      <c r="BD98" s="105"/>
+      <c r="BE98" s="105"/>
+      <c r="BF98" s="105"/>
+      <c r="BG98" s="105"/>
+      <c r="BH98" s="105"/>
+      <c r="BI98" s="105"/>
+      <c r="BJ98" s="105"/>
+      <c r="BK98" s="105"/>
+      <c r="BL98" s="105"/>
+      <c r="BM98" s="105"/>
+      <c r="BN98" s="105"/>
+      <c r="BO98" s="105"/>
+      <c r="BP98" s="105"/>
+      <c r="BQ98" s="105"/>
+      <c r="BR98" s="105"/>
+      <c r="BS98" s="105"/>
+      <c r="BT98" s="105"/>
+      <c r="BU98" s="105"/>
+      <c r="BV98" s="105"/>
+      <c r="BW98" s="105"/>
+      <c r="BX98" s="105"/>
+      <c r="BY98" s="105"/>
+      <c r="BZ98" s="105"/>
+      <c r="CA98" s="105"/>
+      <c r="CB98" s="105"/>
+      <c r="CC98" s="105"/>
+      <c r="CD98" s="105"/>
+      <c r="CE98" s="105"/>
+      <c r="CF98" s="105"/>
+      <c r="CG98" s="105"/>
+      <c r="CH98" s="105"/>
+      <c r="CI98" s="105"/>
+      <c r="CJ98" s="105"/>
+      <c r="CK98" s="105"/>
+      <c r="CL98" s="105"/>
+      <c r="CM98" s="105"/>
+      <c r="CN98" s="105"/>
+      <c r="CO98" s="105"/>
+      <c r="CP98" s="105"/>
+      <c r="CQ98" s="105"/>
+      <c r="CR98" s="105"/>
+      <c r="CS98" s="105"/>
+      <c r="CT98" s="105"/>
+      <c r="CU98" s="105"/>
+      <c r="CV98" s="105"/>
+      <c r="CW98" s="105"/>
+      <c r="CX98" s="105"/>
+      <c r="CY98" s="105"/>
+      <c r="CZ98" s="105"/>
+      <c r="DA98" s="105"/>
+      <c r="DB98" s="105"/>
+      <c r="DC98" s="105"/>
+      <c r="DD98" s="105"/>
+      <c r="DE98" s="105"/>
+      <c r="DF98" s="105"/>
+      <c r="DG98" s="105"/>
+      <c r="DH98" s="105"/>
+      <c r="DI98" s="105"/>
+      <c r="DJ98" s="105"/>
+      <c r="DK98" s="105"/>
+      <c r="DL98" s="105"/>
+      <c r="DM98" s="105"/>
+      <c r="DN98" s="105"/>
+      <c r="DO98" s="105"/>
+      <c r="DP98" s="105"/>
+      <c r="DQ98" s="105"/>
+      <c r="DR98" s="105"/>
+      <c r="DS98" s="105"/>
+      <c r="DT98" s="105"/>
+      <c r="DU98" s="105"/>
+      <c r="DV98" s="105"/>
+      <c r="DW98" s="105"/>
+      <c r="DX98" s="105"/>
+      <c r="DY98" s="105"/>
+      <c r="DZ98" s="105"/>
+      <c r="EA98" s="105"/>
+      <c r="EB98" s="105"/>
+      <c r="EC98" s="105"/>
+      <c r="ED98" s="105"/>
+      <c r="EE98" s="105"/>
+      <c r="EF98" s="105"/>
+      <c r="EG98" s="105"/>
+      <c r="EH98" s="105"/>
+      <c r="EI98" s="105"/>
+      <c r="EJ98" s="105"/>
+      <c r="EK98" s="105"/>
+      <c r="EL98" s="105"/>
+      <c r="EM98" s="105"/>
+      <c r="EN98" s="105"/>
+      <c r="EO98" s="105"/>
+      <c r="EP98" s="105"/>
+      <c r="EQ98" s="105"/>
+      <c r="ER98" s="105"/>
+      <c r="ES98" s="105"/>
+      <c r="ET98" s="105"/>
+      <c r="EU98" s="105"/>
+      <c r="EV98" s="105"/>
+      <c r="EW98" s="105"/>
+      <c r="EX98" s="105"/>
+      <c r="EY98" s="105"/>
+      <c r="EZ98" s="105"/>
+      <c r="FA98" s="105"/>
+      <c r="FB98" s="105"/>
+      <c r="FC98" s="105"/>
+      <c r="FD98" s="105"/>
+      <c r="FE98" s="105"/>
+      <c r="FF98" s="105"/>
+      <c r="FG98" s="105"/>
+      <c r="FH98" s="105"/>
+      <c r="FI98" s="105"/>
+      <c r="FJ98" s="105"/>
+      <c r="FK98" s="105"/>
+      <c r="FL98" s="105"/>
+      <c r="FM98" s="105"/>
+      <c r="FN98" s="105"/>
+      <c r="FO98" s="105"/>
+      <c r="FP98" s="105"/>
+      <c r="FQ98" s="105"/>
+      <c r="FR98" s="105"/>
+      <c r="FS98" s="105"/>
+      <c r="FT98" s="105"/>
+      <c r="FU98" s="105"/>
+      <c r="FV98" s="105"/>
+      <c r="FW98" s="105"/>
+      <c r="FX98" s="105"/>
+      <c r="FY98" s="105"/>
+      <c r="FZ98" s="105"/>
+      <c r="GA98" s="105"/>
+      <c r="GB98" s="105"/>
+      <c r="GC98" s="105"/>
+      <c r="GD98" s="105"/>
+      <c r="GE98" s="105"/>
+      <c r="GF98" s="105"/>
+      <c r="GG98" s="105"/>
+      <c r="GH98" s="105"/>
+      <c r="GI98" s="105"/>
+      <c r="GJ98" s="105"/>
+      <c r="GK98" s="105"/>
+      <c r="GL98" s="105"/>
+      <c r="GM98" s="105"/>
+      <c r="GN98" s="105"/>
+      <c r="GO98" s="105"/>
+      <c r="GP98" s="105"/>
+      <c r="GQ98" s="105"/>
+      <c r="GR98" s="105"/>
+      <c r="GS98" s="105"/>
+      <c r="GT98" s="105"/>
+      <c r="GU98" s="105"/>
+      <c r="GV98" s="105"/>
+      <c r="GW98" s="105"/>
+      <c r="GX98" s="105"/>
+      <c r="GY98" s="105"/>
+      <c r="GZ98" s="105"/>
+      <c r="HA98" s="105"/>
+      <c r="HB98" s="105"/>
+      <c r="HC98" s="105"/>
+      <c r="HD98" s="105"/>
+      <c r="HE98" s="105"/>
+      <c r="HF98" s="105"/>
+      <c r="HG98" s="105"/>
+      <c r="HH98" s="105"/>
+      <c r="HI98" s="105"/>
+      <c r="HJ98" s="105"/>
+      <c r="HK98" s="105"/>
+      <c r="HL98" s="105"/>
+      <c r="HM98" s="105"/>
+      <c r="HN98" s="105"/>
+      <c r="HO98" s="105"/>
+      <c r="HP98" s="105"/>
+      <c r="HQ98" s="105"/>
+      <c r="HR98" s="105"/>
+      <c r="HS98" s="105"/>
+      <c r="HT98" s="105"/>
+      <c r="HU98" s="105"/>
+      <c r="HV98" s="105"/>
+      <c r="HW98" s="105"/>
+      <c r="HX98" s="105"/>
+      <c r="HY98" s="105"/>
+      <c r="HZ98" s="105"/>
+      <c r="IA98" s="105"/>
+      <c r="IB98" s="105"/>
+      <c r="IC98" s="105"/>
+      <c r="ID98" s="105"/>
+      <c r="IE98" s="105"/>
+      <c r="IF98" s="105"/>
+      <c r="IG98" s="105"/>
+      <c r="IH98" s="105"/>
+      <c r="II98" s="105"/>
+      <c r="IJ98" s="105"/>
+      <c r="IK98" s="105"/>
+      <c r="IL98" s="105"/>
+      <c r="IM98" s="105"/>
+      <c r="IN98" s="105"/>
+      <c r="IO98" s="105"/>
+      <c r="IP98" s="105"/>
     </row>
     <row r="99" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A99" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A99:A103" si="9">IF(OR(B99&lt;&gt;"",D99&lt;E98&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-89]</v>
       </c>
       <c r="B99" s="117" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C99" s="117" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E99" s="177"/>
       <c r="F99" s="117"/>
@@ -17451,17 +17905,17 @@
     </row>
     <row r="100" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A100" s="168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>[User_login-90]</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C100" s="117" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E100" s="177"/>
       <c r="F100" s="117"/>
@@ -17712,17 +18166,17 @@
     </row>
     <row r="101" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A101" s="168" t="str">
-        <f t="shared" ref="A101:A105" si="11">IF(OR(B101&lt;&gt;"",D101&lt;E100&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="9"/>
         <v>[User_login-91]</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C101" s="117" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E101" s="177"/>
       <c r="F101" s="117"/>
@@ -17973,17 +18427,17 @@
     </row>
     <row r="102" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
       <c r="A102" s="168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>[User_login-92]</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C102" s="117" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E102" s="177"/>
       <c r="F102" s="117"/>
@@ -18232,19 +18686,19 @@
       <c r="IO102" s="105"/>
       <c r="IP102" s="105"/>
     </row>
-    <row r="103" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
+    <row r="103" spans="1:250" ht="14.25" customHeight="1">
       <c r="A103" s="168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>[User_login-93]</v>
       </c>
       <c r="B103" s="117" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C103" s="117" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E103" s="177"/>
       <c r="F103" s="117"/>
@@ -18252,260 +18706,20 @@
       <c r="H103" s="178"/>
       <c r="I103" s="177"/>
       <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="105"/>
-      <c r="M103" s="105"/>
-      <c r="N103" s="105"/>
-      <c r="O103" s="105"/>
-      <c r="P103" s="105"/>
-      <c r="Q103" s="105"/>
-      <c r="R103" s="105"/>
-      <c r="S103" s="105"/>
-      <c r="T103" s="105"/>
-      <c r="U103" s="105"/>
-      <c r="V103" s="105"/>
-      <c r="W103" s="105"/>
-      <c r="X103" s="105"/>
-      <c r="Y103" s="105"/>
-      <c r="Z103" s="105"/>
-      <c r="AA103" s="105"/>
-      <c r="AB103" s="105"/>
-      <c r="AC103" s="105"/>
-      <c r="AD103" s="105"/>
-      <c r="AE103" s="105"/>
-      <c r="AF103" s="105"/>
-      <c r="AG103" s="105"/>
-      <c r="AH103" s="105"/>
-      <c r="AI103" s="105"/>
-      <c r="AJ103" s="105"/>
-      <c r="AK103" s="105"/>
-      <c r="AL103" s="105"/>
-      <c r="AM103" s="105"/>
-      <c r="AN103" s="105"/>
-      <c r="AO103" s="105"/>
-      <c r="AP103" s="105"/>
-      <c r="AQ103" s="105"/>
-      <c r="AR103" s="105"/>
-      <c r="AS103" s="105"/>
-      <c r="AT103" s="105"/>
-      <c r="AU103" s="105"/>
-      <c r="AV103" s="105"/>
-      <c r="AW103" s="105"/>
-      <c r="AX103" s="105"/>
-      <c r="AY103" s="105"/>
-      <c r="AZ103" s="105"/>
-      <c r="BA103" s="105"/>
-      <c r="BB103" s="105"/>
-      <c r="BC103" s="105"/>
-      <c r="BD103" s="105"/>
-      <c r="BE103" s="105"/>
-      <c r="BF103" s="105"/>
-      <c r="BG103" s="105"/>
-      <c r="BH103" s="105"/>
-      <c r="BI103" s="105"/>
-      <c r="BJ103" s="105"/>
-      <c r="BK103" s="105"/>
-      <c r="BL103" s="105"/>
-      <c r="BM103" s="105"/>
-      <c r="BN103" s="105"/>
-      <c r="BO103" s="105"/>
-      <c r="BP103" s="105"/>
-      <c r="BQ103" s="105"/>
-      <c r="BR103" s="105"/>
-      <c r="BS103" s="105"/>
-      <c r="BT103" s="105"/>
-      <c r="BU103" s="105"/>
-      <c r="BV103" s="105"/>
-      <c r="BW103" s="105"/>
-      <c r="BX103" s="105"/>
-      <c r="BY103" s="105"/>
-      <c r="BZ103" s="105"/>
-      <c r="CA103" s="105"/>
-      <c r="CB103" s="105"/>
-      <c r="CC103" s="105"/>
-      <c r="CD103" s="105"/>
-      <c r="CE103" s="105"/>
-      <c r="CF103" s="105"/>
-      <c r="CG103" s="105"/>
-      <c r="CH103" s="105"/>
-      <c r="CI103" s="105"/>
-      <c r="CJ103" s="105"/>
-      <c r="CK103" s="105"/>
-      <c r="CL103" s="105"/>
-      <c r="CM103" s="105"/>
-      <c r="CN103" s="105"/>
-      <c r="CO103" s="105"/>
-      <c r="CP103" s="105"/>
-      <c r="CQ103" s="105"/>
-      <c r="CR103" s="105"/>
-      <c r="CS103" s="105"/>
-      <c r="CT103" s="105"/>
-      <c r="CU103" s="105"/>
-      <c r="CV103" s="105"/>
-      <c r="CW103" s="105"/>
-      <c r="CX103" s="105"/>
-      <c r="CY103" s="105"/>
-      <c r="CZ103" s="105"/>
-      <c r="DA103" s="105"/>
-      <c r="DB103" s="105"/>
-      <c r="DC103" s="105"/>
-      <c r="DD103" s="105"/>
-      <c r="DE103" s="105"/>
-      <c r="DF103" s="105"/>
-      <c r="DG103" s="105"/>
-      <c r="DH103" s="105"/>
-      <c r="DI103" s="105"/>
-      <c r="DJ103" s="105"/>
-      <c r="DK103" s="105"/>
-      <c r="DL103" s="105"/>
-      <c r="DM103" s="105"/>
-      <c r="DN103" s="105"/>
-      <c r="DO103" s="105"/>
-      <c r="DP103" s="105"/>
-      <c r="DQ103" s="105"/>
-      <c r="DR103" s="105"/>
-      <c r="DS103" s="105"/>
-      <c r="DT103" s="105"/>
-      <c r="DU103" s="105"/>
-      <c r="DV103" s="105"/>
-      <c r="DW103" s="105"/>
-      <c r="DX103" s="105"/>
-      <c r="DY103" s="105"/>
-      <c r="DZ103" s="105"/>
-      <c r="EA103" s="105"/>
-      <c r="EB103" s="105"/>
-      <c r="EC103" s="105"/>
-      <c r="ED103" s="105"/>
-      <c r="EE103" s="105"/>
-      <c r="EF103" s="105"/>
-      <c r="EG103" s="105"/>
-      <c r="EH103" s="105"/>
-      <c r="EI103" s="105"/>
-      <c r="EJ103" s="105"/>
-      <c r="EK103" s="105"/>
-      <c r="EL103" s="105"/>
-      <c r="EM103" s="105"/>
-      <c r="EN103" s="105"/>
-      <c r="EO103" s="105"/>
-      <c r="EP103" s="105"/>
-      <c r="EQ103" s="105"/>
-      <c r="ER103" s="105"/>
-      <c r="ES103" s="105"/>
-      <c r="ET103" s="105"/>
-      <c r="EU103" s="105"/>
-      <c r="EV103" s="105"/>
-      <c r="EW103" s="105"/>
-      <c r="EX103" s="105"/>
-      <c r="EY103" s="105"/>
-      <c r="EZ103" s="105"/>
-      <c r="FA103" s="105"/>
-      <c r="FB103" s="105"/>
-      <c r="FC103" s="105"/>
-      <c r="FD103" s="105"/>
-      <c r="FE103" s="105"/>
-      <c r="FF103" s="105"/>
-      <c r="FG103" s="105"/>
-      <c r="FH103" s="105"/>
-      <c r="FI103" s="105"/>
-      <c r="FJ103" s="105"/>
-      <c r="FK103" s="105"/>
-      <c r="FL103" s="105"/>
-      <c r="FM103" s="105"/>
-      <c r="FN103" s="105"/>
-      <c r="FO103" s="105"/>
-      <c r="FP103" s="105"/>
-      <c r="FQ103" s="105"/>
-      <c r="FR103" s="105"/>
-      <c r="FS103" s="105"/>
-      <c r="FT103" s="105"/>
-      <c r="FU103" s="105"/>
-      <c r="FV103" s="105"/>
-      <c r="FW103" s="105"/>
-      <c r="FX103" s="105"/>
-      <c r="FY103" s="105"/>
-      <c r="FZ103" s="105"/>
-      <c r="GA103" s="105"/>
-      <c r="GB103" s="105"/>
-      <c r="GC103" s="105"/>
-      <c r="GD103" s="105"/>
-      <c r="GE103" s="105"/>
-      <c r="GF103" s="105"/>
-      <c r="GG103" s="105"/>
-      <c r="GH103" s="105"/>
-      <c r="GI103" s="105"/>
-      <c r="GJ103" s="105"/>
-      <c r="GK103" s="105"/>
-      <c r="GL103" s="105"/>
-      <c r="GM103" s="105"/>
-      <c r="GN103" s="105"/>
-      <c r="GO103" s="105"/>
-      <c r="GP103" s="105"/>
-      <c r="GQ103" s="105"/>
-      <c r="GR103" s="105"/>
-      <c r="GS103" s="105"/>
-      <c r="GT103" s="105"/>
-      <c r="GU103" s="105"/>
-      <c r="GV103" s="105"/>
-      <c r="GW103" s="105"/>
-      <c r="GX103" s="105"/>
-      <c r="GY103" s="105"/>
-      <c r="GZ103" s="105"/>
-      <c r="HA103" s="105"/>
-      <c r="HB103" s="105"/>
-      <c r="HC103" s="105"/>
-      <c r="HD103" s="105"/>
-      <c r="HE103" s="105"/>
-      <c r="HF103" s="105"/>
-      <c r="HG103" s="105"/>
-      <c r="HH103" s="105"/>
-      <c r="HI103" s="105"/>
-      <c r="HJ103" s="105"/>
-      <c r="HK103" s="105"/>
-      <c r="HL103" s="105"/>
-      <c r="HM103" s="105"/>
-      <c r="HN103" s="105"/>
-      <c r="HO103" s="105"/>
-      <c r="HP103" s="105"/>
-      <c r="HQ103" s="105"/>
-      <c r="HR103" s="105"/>
-      <c r="HS103" s="105"/>
-      <c r="HT103" s="105"/>
-      <c r="HU103" s="105"/>
-      <c r="HV103" s="105"/>
-      <c r="HW103" s="105"/>
-      <c r="HX103" s="105"/>
-      <c r="HY103" s="105"/>
-      <c r="HZ103" s="105"/>
-      <c r="IA103" s="105"/>
-      <c r="IB103" s="105"/>
-      <c r="IC103" s="105"/>
-      <c r="ID103" s="105"/>
-      <c r="IE103" s="105"/>
-      <c r="IF103" s="105"/>
-      <c r="IG103" s="105"/>
-      <c r="IH103" s="105"/>
-      <c r="II103" s="105"/>
-      <c r="IJ103" s="105"/>
-      <c r="IK103" s="105"/>
-      <c r="IL103" s="105"/>
-      <c r="IM103" s="105"/>
-      <c r="IN103" s="105"/>
-      <c r="IO103" s="105"/>
-      <c r="IP103" s="105"/>
-    </row>
-    <row r="104" spans="1:250" s="108" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="104" spans="1:250" ht="14.25" customHeight="1">
       <c r="A104" s="168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A104:A108" si="10">IF(OR(B104&lt;&gt;"",D104&lt;E103&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-94]</v>
       </c>
       <c r="B104" s="117" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C104" s="117" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E104" s="177"/>
       <c r="F104" s="117"/>
@@ -18513,260 +18727,20 @@
       <c r="H104" s="178"/>
       <c r="I104" s="177"/>
       <c r="J104" s="105"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
-      <c r="M104" s="105"/>
-      <c r="N104" s="105"/>
-      <c r="O104" s="105"/>
-      <c r="P104" s="105"/>
-      <c r="Q104" s="105"/>
-      <c r="R104" s="105"/>
-      <c r="S104" s="105"/>
-      <c r="T104" s="105"/>
-      <c r="U104" s="105"/>
-      <c r="V104" s="105"/>
-      <c r="W104" s="105"/>
-      <c r="X104" s="105"/>
-      <c r="Y104" s="105"/>
-      <c r="Z104" s="105"/>
-      <c r="AA104" s="105"/>
-      <c r="AB104" s="105"/>
-      <c r="AC104" s="105"/>
-      <c r="AD104" s="105"/>
-      <c r="AE104" s="105"/>
-      <c r="AF104" s="105"/>
-      <c r="AG104" s="105"/>
-      <c r="AH104" s="105"/>
-      <c r="AI104" s="105"/>
-      <c r="AJ104" s="105"/>
-      <c r="AK104" s="105"/>
-      <c r="AL104" s="105"/>
-      <c r="AM104" s="105"/>
-      <c r="AN104" s="105"/>
-      <c r="AO104" s="105"/>
-      <c r="AP104" s="105"/>
-      <c r="AQ104" s="105"/>
-      <c r="AR104" s="105"/>
-      <c r="AS104" s="105"/>
-      <c r="AT104" s="105"/>
-      <c r="AU104" s="105"/>
-      <c r="AV104" s="105"/>
-      <c r="AW104" s="105"/>
-      <c r="AX104" s="105"/>
-      <c r="AY104" s="105"/>
-      <c r="AZ104" s="105"/>
-      <c r="BA104" s="105"/>
-      <c r="BB104" s="105"/>
-      <c r="BC104" s="105"/>
-      <c r="BD104" s="105"/>
-      <c r="BE104" s="105"/>
-      <c r="BF104" s="105"/>
-      <c r="BG104" s="105"/>
-      <c r="BH104" s="105"/>
-      <c r="BI104" s="105"/>
-      <c r="BJ104" s="105"/>
-      <c r="BK104" s="105"/>
-      <c r="BL104" s="105"/>
-      <c r="BM104" s="105"/>
-      <c r="BN104" s="105"/>
-      <c r="BO104" s="105"/>
-      <c r="BP104" s="105"/>
-      <c r="BQ104" s="105"/>
-      <c r="BR104" s="105"/>
-      <c r="BS104" s="105"/>
-      <c r="BT104" s="105"/>
-      <c r="BU104" s="105"/>
-      <c r="BV104" s="105"/>
-      <c r="BW104" s="105"/>
-      <c r="BX104" s="105"/>
-      <c r="BY104" s="105"/>
-      <c r="BZ104" s="105"/>
-      <c r="CA104" s="105"/>
-      <c r="CB104" s="105"/>
-      <c r="CC104" s="105"/>
-      <c r="CD104" s="105"/>
-      <c r="CE104" s="105"/>
-      <c r="CF104" s="105"/>
-      <c r="CG104" s="105"/>
-      <c r="CH104" s="105"/>
-      <c r="CI104" s="105"/>
-      <c r="CJ104" s="105"/>
-      <c r="CK104" s="105"/>
-      <c r="CL104" s="105"/>
-      <c r="CM104" s="105"/>
-      <c r="CN104" s="105"/>
-      <c r="CO104" s="105"/>
-      <c r="CP104" s="105"/>
-      <c r="CQ104" s="105"/>
-      <c r="CR104" s="105"/>
-      <c r="CS104" s="105"/>
-      <c r="CT104" s="105"/>
-      <c r="CU104" s="105"/>
-      <c r="CV104" s="105"/>
-      <c r="CW104" s="105"/>
-      <c r="CX104" s="105"/>
-      <c r="CY104" s="105"/>
-      <c r="CZ104" s="105"/>
-      <c r="DA104" s="105"/>
-      <c r="DB104" s="105"/>
-      <c r="DC104" s="105"/>
-      <c r="DD104" s="105"/>
-      <c r="DE104" s="105"/>
-      <c r="DF104" s="105"/>
-      <c r="DG104" s="105"/>
-      <c r="DH104" s="105"/>
-      <c r="DI104" s="105"/>
-      <c r="DJ104" s="105"/>
-      <c r="DK104" s="105"/>
-      <c r="DL104" s="105"/>
-      <c r="DM104" s="105"/>
-      <c r="DN104" s="105"/>
-      <c r="DO104" s="105"/>
-      <c r="DP104" s="105"/>
-      <c r="DQ104" s="105"/>
-      <c r="DR104" s="105"/>
-      <c r="DS104" s="105"/>
-      <c r="DT104" s="105"/>
-      <c r="DU104" s="105"/>
-      <c r="DV104" s="105"/>
-      <c r="DW104" s="105"/>
-      <c r="DX104" s="105"/>
-      <c r="DY104" s="105"/>
-      <c r="DZ104" s="105"/>
-      <c r="EA104" s="105"/>
-      <c r="EB104" s="105"/>
-      <c r="EC104" s="105"/>
-      <c r="ED104" s="105"/>
-      <c r="EE104" s="105"/>
-      <c r="EF104" s="105"/>
-      <c r="EG104" s="105"/>
-      <c r="EH104" s="105"/>
-      <c r="EI104" s="105"/>
-      <c r="EJ104" s="105"/>
-      <c r="EK104" s="105"/>
-      <c r="EL104" s="105"/>
-      <c r="EM104" s="105"/>
-      <c r="EN104" s="105"/>
-      <c r="EO104" s="105"/>
-      <c r="EP104" s="105"/>
-      <c r="EQ104" s="105"/>
-      <c r="ER104" s="105"/>
-      <c r="ES104" s="105"/>
-      <c r="ET104" s="105"/>
-      <c r="EU104" s="105"/>
-      <c r="EV104" s="105"/>
-      <c r="EW104" s="105"/>
-      <c r="EX104" s="105"/>
-      <c r="EY104" s="105"/>
-      <c r="EZ104" s="105"/>
-      <c r="FA104" s="105"/>
-      <c r="FB104" s="105"/>
-      <c r="FC104" s="105"/>
-      <c r="FD104" s="105"/>
-      <c r="FE104" s="105"/>
-      <c r="FF104" s="105"/>
-      <c r="FG104" s="105"/>
-      <c r="FH104" s="105"/>
-      <c r="FI104" s="105"/>
-      <c r="FJ104" s="105"/>
-      <c r="FK104" s="105"/>
-      <c r="FL104" s="105"/>
-      <c r="FM104" s="105"/>
-      <c r="FN104" s="105"/>
-      <c r="FO104" s="105"/>
-      <c r="FP104" s="105"/>
-      <c r="FQ104" s="105"/>
-      <c r="FR104" s="105"/>
-      <c r="FS104" s="105"/>
-      <c r="FT104" s="105"/>
-      <c r="FU104" s="105"/>
-      <c r="FV104" s="105"/>
-      <c r="FW104" s="105"/>
-      <c r="FX104" s="105"/>
-      <c r="FY104" s="105"/>
-      <c r="FZ104" s="105"/>
-      <c r="GA104" s="105"/>
-      <c r="GB104" s="105"/>
-      <c r="GC104" s="105"/>
-      <c r="GD104" s="105"/>
-      <c r="GE104" s="105"/>
-      <c r="GF104" s="105"/>
-      <c r="GG104" s="105"/>
-      <c r="GH104" s="105"/>
-      <c r="GI104" s="105"/>
-      <c r="GJ104" s="105"/>
-      <c r="GK104" s="105"/>
-      <c r="GL104" s="105"/>
-      <c r="GM104" s="105"/>
-      <c r="GN104" s="105"/>
-      <c r="GO104" s="105"/>
-      <c r="GP104" s="105"/>
-      <c r="GQ104" s="105"/>
-      <c r="GR104" s="105"/>
-      <c r="GS104" s="105"/>
-      <c r="GT104" s="105"/>
-      <c r="GU104" s="105"/>
-      <c r="GV104" s="105"/>
-      <c r="GW104" s="105"/>
-      <c r="GX104" s="105"/>
-      <c r="GY104" s="105"/>
-      <c r="GZ104" s="105"/>
-      <c r="HA104" s="105"/>
-      <c r="HB104" s="105"/>
-      <c r="HC104" s="105"/>
-      <c r="HD104" s="105"/>
-      <c r="HE104" s="105"/>
-      <c r="HF104" s="105"/>
-      <c r="HG104" s="105"/>
-      <c r="HH104" s="105"/>
-      <c r="HI104" s="105"/>
-      <c r="HJ104" s="105"/>
-      <c r="HK104" s="105"/>
-      <c r="HL104" s="105"/>
-      <c r="HM104" s="105"/>
-      <c r="HN104" s="105"/>
-      <c r="HO104" s="105"/>
-      <c r="HP104" s="105"/>
-      <c r="HQ104" s="105"/>
-      <c r="HR104" s="105"/>
-      <c r="HS104" s="105"/>
-      <c r="HT104" s="105"/>
-      <c r="HU104" s="105"/>
-      <c r="HV104" s="105"/>
-      <c r="HW104" s="105"/>
-      <c r="HX104" s="105"/>
-      <c r="HY104" s="105"/>
-      <c r="HZ104" s="105"/>
-      <c r="IA104" s="105"/>
-      <c r="IB104" s="105"/>
-      <c r="IC104" s="105"/>
-      <c r="ID104" s="105"/>
-      <c r="IE104" s="105"/>
-      <c r="IF104" s="105"/>
-      <c r="IG104" s="105"/>
-      <c r="IH104" s="105"/>
-      <c r="II104" s="105"/>
-      <c r="IJ104" s="105"/>
-      <c r="IK104" s="105"/>
-      <c r="IL104" s="105"/>
-      <c r="IM104" s="105"/>
-      <c r="IN104" s="105"/>
-      <c r="IO104" s="105"/>
-      <c r="IP104" s="105"/>
     </row>
     <row r="105" spans="1:250" ht="14.25" customHeight="1">
       <c r="A105" s="168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>[User_login-95]</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C105" s="117" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E105" s="177"/>
       <c r="F105" s="117"/>
@@ -18777,17 +18751,17 @@
     </row>
     <row r="106" spans="1:250" ht="14.25" customHeight="1">
       <c r="A106" s="168" t="str">
-        <f t="shared" ref="A106:A110" si="12">IF(OR(B106&lt;&gt;"",D106&lt;E105&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="10"/>
         <v>[User_login-96]</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C106" s="117" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E106" s="177"/>
       <c r="F106" s="117"/>
@@ -18798,17 +18772,17 @@
     </row>
     <row r="107" spans="1:250" ht="14.25" customHeight="1">
       <c r="A107" s="168" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>[User_login-97]</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C107" s="117" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E107" s="177"/>
       <c r="F107" s="117"/>
@@ -18819,17 +18793,17 @@
     </row>
     <row r="108" spans="1:250" ht="14.25" customHeight="1">
       <c r="A108" s="168" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>[User_login-98]</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C108" s="117" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E108" s="177"/>
       <c r="F108" s="117"/>
@@ -18839,74 +18813,74 @@
       <c r="J108" s="105"/>
     </row>
     <row r="109" spans="1:250" ht="14.25" customHeight="1">
-      <c r="A109" s="168" t="str">
-        <f t="shared" si="12"/>
-        <v>[User_login-99]</v>
-      </c>
-      <c r="B109" s="117" t="s">
-        <v>434</v>
-      </c>
-      <c r="C109" s="117" t="s">
-        <v>410</v>
-      </c>
-      <c r="D109" s="117" t="s">
-        <v>395</v>
-      </c>
-      <c r="E109" s="177"/>
-      <c r="F109" s="117"/>
-      <c r="G109" s="117"/>
-      <c r="H109" s="178"/>
-      <c r="I109" s="177"/>
+      <c r="A109" s="182"/>
+      <c r="B109" s="182" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="179"/>
+      <c r="D109" s="179"/>
+      <c r="E109" s="179"/>
+      <c r="F109" s="179"/>
+      <c r="G109" s="179"/>
+      <c r="H109" s="179"/>
+      <c r="I109" s="181"/>
       <c r="J109" s="105"/>
     </row>
     <row r="110" spans="1:250" ht="14.25" customHeight="1">
       <c r="A110" s="168" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(OR(B110&lt;&gt;"",D110&lt;E109&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-100]</v>
       </c>
       <c r="B110" s="117" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C110" s="117" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>397</v>
-      </c>
-      <c r="E110" s="177"/>
+        <v>444</v>
+      </c>
+      <c r="E110" s="118"/>
       <c r="F110" s="117"/>
       <c r="G110" s="117"/>
-      <c r="H110" s="178"/>
-      <c r="I110" s="177"/>
+      <c r="H110" s="119"/>
+      <c r="I110" s="120"/>
       <c r="J110" s="105"/>
     </row>
     <row r="111" spans="1:250" ht="14.25" customHeight="1">
-      <c r="A111" s="182"/>
-      <c r="B111" s="182" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="179"/>
-      <c r="D111" s="179"/>
-      <c r="E111" s="179"/>
-      <c r="F111" s="179"/>
-      <c r="G111" s="179"/>
-      <c r="H111" s="179"/>
-      <c r="I111" s="181"/>
+      <c r="A111" s="168" t="str">
+        <f>IF(OR(B111&lt;&gt;"",D111&lt;E110&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-101]</v>
+      </c>
+      <c r="B111" s="117" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="D111" s="117" t="s">
+        <v>440</v>
+      </c>
+      <c r="E111" s="118"/>
+      <c r="F111" s="117"/>
+      <c r="G111" s="117"/>
+      <c r="H111" s="119"/>
+      <c r="I111" s="120"/>
       <c r="J111" s="105"/>
     </row>
     <row r="112" spans="1:250" ht="14.25" customHeight="1">
       <c r="A112" s="168" t="str">
-        <f>IF(OR(B112&lt;&gt;"",D112&lt;E111&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A112" si="11">IF(OR(B112&lt;&gt;"",D112&lt;E111&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-102]</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C112" s="117" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E112" s="118"/>
       <c r="F112" s="117"/>
@@ -18917,17 +18891,17 @@
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1">
       <c r="A113" s="168" t="str">
-        <f>IF(OR(B113&lt;&gt;"",D113&lt;E112&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B113&lt;&gt;"",D113&lt;E109&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-103]</v>
       </c>
       <c r="B113" s="117" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C113" s="117" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>446</v>
+        <v>670</v>
       </c>
       <c r="E113" s="118"/>
       <c r="F113" s="117"/>
@@ -18938,17 +18912,17 @@
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1">
       <c r="A114" s="168" t="str">
-        <f t="shared" ref="A114" si="13">IF(OR(B114&lt;&gt;"",D114&lt;E113&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B114&lt;&gt;"",D114&lt;E110&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-104]</v>
       </c>
       <c r="B114" s="117" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C114" s="117" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="E114" s="118"/>
       <c r="F114" s="117"/>
@@ -18963,15 +18937,15 @@
         <v>[User_login-105]</v>
       </c>
       <c r="B115" s="117" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C115" s="117" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>676</v>
-      </c>
-      <c r="E115" s="118"/>
+        <v>408</v>
+      </c>
+      <c r="E115" s="168"/>
       <c r="F115" s="117"/>
       <c r="G115" s="117"/>
       <c r="H115" s="119"/>
@@ -18980,17 +18954,17 @@
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1">
       <c r="A116" s="168" t="str">
-        <f>IF(OR(B116&lt;&gt;"",D116&lt;E112&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B116&lt;&gt;"",D116&lt;E113&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-106]</v>
       </c>
       <c r="B116" s="117" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C116" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="117" t="s">
         <v>413</v>
-      </c>
-      <c r="D116" s="117" t="s">
-        <v>414</v>
       </c>
       <c r="E116" s="118"/>
       <c r="F116" s="117"/>
@@ -19001,19 +18975,19 @@
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1">
       <c r="A117" s="168" t="str">
-        <f>IF(OR(B117&lt;&gt;"",D117&lt;E113&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B117&lt;&gt;"",D117&lt;E114&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-107]</v>
       </c>
       <c r="B117" s="117" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C117" s="117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>414</v>
-      </c>
-      <c r="E117" s="168"/>
+        <v>415</v>
+      </c>
+      <c r="E117" s="118"/>
       <c r="F117" s="117"/>
       <c r="G117" s="117"/>
       <c r="H117" s="119"/>
@@ -19026,13 +19000,13 @@
         <v>[User_login-108]</v>
       </c>
       <c r="B118" s="117" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C118" s="117" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D118" s="117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E118" s="118"/>
       <c r="F118" s="117"/>
@@ -19043,59 +19017,59 @@
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1">
       <c r="A119" s="168" t="str">
-        <f>IF(OR(B119&lt;&gt;"",D119&lt;E116&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A119:A121" si="12">IF(OR(B119&lt;&gt;"",D119&lt;E116&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-109]</v>
       </c>
       <c r="B119" s="117" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C119" s="117" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>421</v>
-      </c>
-      <c r="E119" s="118"/>
+        <v>419</v>
+      </c>
+      <c r="E119" s="177"/>
       <c r="F119" s="117"/>
-      <c r="G119" s="117"/>
-      <c r="H119" s="119"/>
-      <c r="I119" s="120"/>
+      <c r="G119" s="177"/>
+      <c r="H119" s="178"/>
+      <c r="I119" s="177"/>
       <c r="J119" s="105"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1">
       <c r="A120" s="168" t="str">
-        <f>IF(OR(B120&lt;&gt;"",D120&lt;E117&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="12"/>
         <v>[User_login-110]</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C120" s="117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="E120" s="118"/>
+        <v>421</v>
+      </c>
+      <c r="E120" s="177"/>
       <c r="F120" s="117"/>
-      <c r="G120" s="117"/>
-      <c r="H120" s="119"/>
-      <c r="I120" s="120"/>
+      <c r="G120" s="177"/>
+      <c r="H120" s="178"/>
+      <c r="I120" s="177"/>
       <c r="J120" s="105"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1">
       <c r="A121" s="168" t="str">
-        <f t="shared" ref="A121:A123" si="14">IF(OR(B121&lt;&gt;"",D121&lt;E118&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="12"/>
         <v>[User_login-111]</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C121" s="117" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D121" s="117" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E121" s="177"/>
       <c r="F121" s="117"/>
@@ -19106,17 +19080,17 @@
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1">
       <c r="A122" s="168" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(OR(B122&lt;&gt;"",D122&lt;E117&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-112]</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C122" s="117" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E122" s="177"/>
       <c r="F122" s="117"/>
@@ -19126,74 +19100,74 @@
       <c r="J122" s="105"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A123" s="168" t="str">
-        <f t="shared" si="14"/>
-        <v>[User_login-113]</v>
-      </c>
-      <c r="B123" s="117" t="s">
-        <v>460</v>
-      </c>
-      <c r="C123" s="117" t="s">
-        <v>428</v>
-      </c>
-      <c r="D123" s="117" t="s">
-        <v>429</v>
-      </c>
-      <c r="E123" s="177"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="177"/>
-      <c r="H123" s="178"/>
-      <c r="I123" s="177"/>
+      <c r="A123" s="182"/>
+      <c r="B123" s="182" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" s="179"/>
+      <c r="D123" s="179"/>
+      <c r="E123" s="179"/>
+      <c r="F123" s="179"/>
+      <c r="G123" s="179"/>
+      <c r="H123" s="179"/>
+      <c r="I123" s="181"/>
       <c r="J123" s="105"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1">
       <c r="A124" s="168" t="str">
-        <f>IF(OR(B124&lt;&gt;"",D124&lt;E119&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B124&lt;&gt;"",D124&lt;E123&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-114]</v>
       </c>
       <c r="B124" s="117" t="s">
-        <v>461</v>
+        <v>590</v>
       </c>
       <c r="C124" s="117" t="s">
-        <v>430</v>
+        <v>591</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>431</v>
-      </c>
-      <c r="E124" s="177"/>
+        <v>592</v>
+      </c>
+      <c r="E124" s="118"/>
       <c r="F124" s="117"/>
-      <c r="G124" s="177"/>
-      <c r="H124" s="178"/>
-      <c r="I124" s="177"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="119"/>
+      <c r="I124" s="120"/>
       <c r="J124" s="105"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A125" s="182"/>
-      <c r="B125" s="182" t="s">
-        <v>599</v>
-      </c>
-      <c r="C125" s="179"/>
-      <c r="D125" s="179"/>
-      <c r="E125" s="179"/>
-      <c r="F125" s="179"/>
-      <c r="G125" s="179"/>
-      <c r="H125" s="179"/>
-      <c r="I125" s="181"/>
+      <c r="A125" s="168" t="str">
+        <f>IF(OR(B125&lt;&gt;"",D125&lt;E124&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-115]</v>
+      </c>
+      <c r="B125" s="117" t="s">
+        <v>594</v>
+      </c>
+      <c r="C125" s="117" t="s">
+        <v>595</v>
+      </c>
+      <c r="D125" s="117" t="s">
+        <v>596</v>
+      </c>
+      <c r="E125" s="118"/>
+      <c r="F125" s="117"/>
+      <c r="G125" s="117"/>
+      <c r="H125" s="119"/>
+      <c r="I125" s="120"/>
       <c r="J125" s="105"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1">
       <c r="A126" s="168" t="str">
-        <f>IF(OR(B126&lt;&gt;"",D126&lt;E125&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A126" si="13">IF(OR(B126&lt;&gt;"",D126&lt;E125&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-116]</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C126" s="117" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E126" s="118"/>
       <c r="F126" s="117"/>
@@ -19204,17 +19178,17 @@
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1">
       <c r="A127" s="168" t="str">
-        <f>IF(OR(B127&lt;&gt;"",D127&lt;E126&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B127&lt;&gt;"",D127&lt;E123&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-117]</v>
       </c>
       <c r="B127" s="117" t="s">
+        <v>602</v>
+      </c>
+      <c r="C127" s="117" t="s">
         <v>600</v>
       </c>
-      <c r="C127" s="117" t="s">
+      <c r="D127" s="117" t="s">
         <v>601</v>
-      </c>
-      <c r="D127" s="117" t="s">
-        <v>602</v>
       </c>
       <c r="E127" s="118"/>
       <c r="F127" s="117"/>
@@ -19225,7 +19199,7 @@
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1">
       <c r="A128" s="168" t="str">
-        <f t="shared" ref="A128" si="15">IF(OR(B128&lt;&gt;"",D128&lt;E127&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B128&lt;&gt;"",D128&lt;E124&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-118]</v>
       </c>
       <c r="B128" s="117" t="s">
@@ -19250,15 +19224,15 @@
         <v>[User_login-119]</v>
       </c>
       <c r="B129" s="117" t="s">
+        <v>606</v>
+      </c>
+      <c r="C129" s="117" t="s">
+        <v>607</v>
+      </c>
+      <c r="D129" s="117" t="s">
         <v>608</v>
       </c>
-      <c r="C129" s="117" t="s">
-        <v>606</v>
-      </c>
-      <c r="D129" s="117" t="s">
-        <v>607</v>
-      </c>
-      <c r="E129" s="118"/>
+      <c r="E129" s="168"/>
       <c r="F129" s="117"/>
       <c r="G129" s="117"/>
       <c r="H129" s="119"/>
@@ -19266,328 +19240,330 @@
       <c r="J129" s="105"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A130" s="168" t="str">
-        <f>IF(OR(B130&lt;&gt;"",D130&lt;E126&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-120]</v>
-      </c>
-      <c r="B130" s="117" t="s">
+      <c r="A130" s="223"/>
+      <c r="B130" s="224"/>
+      <c r="C130" s="224"/>
+      <c r="D130" s="224"/>
+      <c r="E130" s="223"/>
+      <c r="F130" s="224"/>
+      <c r="G130" s="224"/>
+      <c r="H130" s="225"/>
+      <c r="I130" s="226"/>
+      <c r="J130" s="105"/>
+    </row>
+    <row r="131" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A131" s="223"/>
+      <c r="B131" s="224"/>
+      <c r="C131" s="224"/>
+      <c r="D131" s="224"/>
+      <c r="E131" s="223"/>
+      <c r="F131" s="224"/>
+      <c r="G131" s="224"/>
+      <c r="H131" s="225"/>
+      <c r="I131" s="226"/>
+      <c r="J131" s="105"/>
+    </row>
+    <row r="132" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A132" s="223"/>
+      <c r="B132" s="224"/>
+      <c r="C132" s="224"/>
+      <c r="D132" s="224"/>
+      <c r="E132" s="223"/>
+      <c r="F132" s="224"/>
+      <c r="G132" s="224"/>
+      <c r="H132" s="225"/>
+      <c r="I132" s="226"/>
+      <c r="J132" s="105"/>
+    </row>
+    <row r="133" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A133" s="223"/>
+      <c r="B133" s="224"/>
+      <c r="C133" s="224"/>
+      <c r="D133" s="224"/>
+      <c r="E133" s="223"/>
+      <c r="F133" s="224"/>
+      <c r="G133" s="224"/>
+      <c r="H133" s="225"/>
+      <c r="I133" s="226"/>
+      <c r="J133" s="105"/>
+    </row>
+    <row r="134" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A134" s="223"/>
+      <c r="B134" s="224"/>
+      <c r="C134" s="224"/>
+      <c r="D134" s="224"/>
+      <c r="E134" s="223"/>
+      <c r="F134" s="224"/>
+      <c r="G134" s="224"/>
+      <c r="H134" s="225"/>
+      <c r="I134" s="226"/>
+      <c r="J134" s="105"/>
+    </row>
+    <row r="135" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A135" s="223"/>
+      <c r="B135" s="224"/>
+      <c r="C135" s="224"/>
+      <c r="D135" s="224"/>
+      <c r="E135" s="223"/>
+      <c r="F135" s="224"/>
+      <c r="G135" s="224"/>
+      <c r="H135" s="225"/>
+      <c r="I135" s="226"/>
+      <c r="J135" s="105"/>
+    </row>
+    <row r="136" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A136" s="223"/>
+      <c r="B136" s="224"/>
+      <c r="C136" s="224"/>
+      <c r="D136" s="224"/>
+      <c r="E136" s="223"/>
+      <c r="F136" s="224"/>
+      <c r="G136" s="224"/>
+      <c r="H136" s="225"/>
+      <c r="I136" s="226"/>
+      <c r="J136" s="105"/>
+    </row>
+    <row r="137" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A137" s="223"/>
+      <c r="B137" s="224"/>
+      <c r="C137" s="224"/>
+      <c r="D137" s="224"/>
+      <c r="E137" s="223"/>
+      <c r="F137" s="224"/>
+      <c r="G137" s="224"/>
+      <c r="H137" s="225"/>
+      <c r="I137" s="226"/>
+      <c r="J137" s="105"/>
+    </row>
+    <row r="138" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A138" s="223"/>
+      <c r="B138" s="224"/>
+      <c r="C138" s="224"/>
+      <c r="D138" s="224"/>
+      <c r="E138" s="223"/>
+      <c r="F138" s="224"/>
+      <c r="G138" s="224"/>
+      <c r="H138" s="225"/>
+      <c r="I138" s="226"/>
+      <c r="J138" s="105"/>
+    </row>
+    <row r="139" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A139" s="223"/>
+      <c r="B139" s="224"/>
+      <c r="C139" s="224"/>
+      <c r="D139" s="224"/>
+      <c r="E139" s="223"/>
+      <c r="F139" s="224"/>
+      <c r="G139" s="224"/>
+      <c r="H139" s="225"/>
+      <c r="I139" s="226"/>
+      <c r="J139" s="105"/>
+    </row>
+    <row r="140" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A140" s="223"/>
+      <c r="B140" s="224"/>
+      <c r="C140" s="224"/>
+      <c r="D140" s="224"/>
+      <c r="E140" s="223"/>
+      <c r="F140" s="224"/>
+      <c r="G140" s="224"/>
+      <c r="H140" s="225"/>
+      <c r="I140" s="226"/>
+      <c r="J140" s="105"/>
+    </row>
+    <row r="141" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A141" s="223"/>
+      <c r="B141" s="224"/>
+      <c r="C141" s="224"/>
+      <c r="D141" s="224"/>
+      <c r="E141" s="223"/>
+      <c r="F141" s="224"/>
+      <c r="G141" s="224"/>
+      <c r="H141" s="225"/>
+      <c r="I141" s="226"/>
+      <c r="J141" s="105"/>
+    </row>
+    <row r="142" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A142" s="223"/>
+      <c r="B142" s="224"/>
+      <c r="C142" s="224"/>
+      <c r="D142" s="224"/>
+      <c r="E142" s="223"/>
+      <c r="F142" s="224"/>
+      <c r="G142" s="224"/>
+      <c r="H142" s="225"/>
+      <c r="I142" s="226"/>
+      <c r="J142" s="105"/>
+    </row>
+    <row r="143" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A143" s="223"/>
+      <c r="B143" s="224"/>
+      <c r="C143" s="224"/>
+      <c r="D143" s="224"/>
+      <c r="E143" s="223"/>
+      <c r="F143" s="224"/>
+      <c r="G143" s="224"/>
+      <c r="H143" s="225"/>
+      <c r="I143" s="226"/>
+      <c r="J143" s="105"/>
+    </row>
+    <row r="144" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A144" s="223"/>
+      <c r="B144" s="224"/>
+      <c r="C144" s="224"/>
+      <c r="D144" s="224"/>
+      <c r="E144" s="223"/>
+      <c r="F144" s="224"/>
+      <c r="G144" s="224"/>
+      <c r="H144" s="225"/>
+      <c r="I144" s="226"/>
+      <c r="J144" s="105"/>
+    </row>
+    <row r="145" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A145" s="223"/>
+      <c r="B145" s="224"/>
+      <c r="C145" s="224"/>
+      <c r="D145" s="224"/>
+      <c r="E145" s="223"/>
+      <c r="F145" s="224"/>
+      <c r="G145" s="224"/>
+      <c r="H145" s="225"/>
+      <c r="I145" s="226"/>
+      <c r="J145" s="105"/>
+    </row>
+    <row r="146" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A146" s="223"/>
+      <c r="B146" s="224"/>
+      <c r="C146" s="224"/>
+      <c r="D146" s="224"/>
+      <c r="E146" s="223"/>
+      <c r="F146" s="224"/>
+      <c r="G146" s="224"/>
+      <c r="H146" s="225"/>
+      <c r="I146" s="226"/>
+      <c r="J146" s="105"/>
+    </row>
+    <row r="147" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A147" s="223"/>
+      <c r="B147" s="224"/>
+      <c r="C147" s="224"/>
+      <c r="D147" s="224"/>
+      <c r="E147" s="223"/>
+      <c r="F147" s="224"/>
+      <c r="G147" s="224"/>
+      <c r="H147" s="225"/>
+      <c r="I147" s="226"/>
+      <c r="J147" s="105"/>
+    </row>
+    <row r="148" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A148" s="223"/>
+      <c r="B148" s="224"/>
+      <c r="C148" s="224"/>
+      <c r="D148" s="224"/>
+      <c r="E148" s="223"/>
+      <c r="F148" s="224"/>
+      <c r="G148" s="224"/>
+      <c r="H148" s="225"/>
+      <c r="I148" s="226"/>
+      <c r="J148" s="105"/>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A149" s="223"/>
+      <c r="B149" s="224"/>
+      <c r="C149" s="224"/>
+      <c r="D149" s="224"/>
+      <c r="E149" s="223"/>
+      <c r="F149" s="224"/>
+      <c r="G149" s="224"/>
+      <c r="H149" s="225"/>
+      <c r="I149" s="226"/>
+      <c r="J149" s="105"/>
+    </row>
+    <row r="150" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A150" s="223"/>
+      <c r="B150" s="224"/>
+      <c r="C150" s="224"/>
+      <c r="D150" s="224"/>
+      <c r="E150" s="223"/>
+      <c r="F150" s="224"/>
+      <c r="G150" s="224"/>
+      <c r="H150" s="225"/>
+      <c r="I150" s="226"/>
+      <c r="J150" s="105"/>
+    </row>
+    <row r="151" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A151" s="223"/>
+      <c r="B151" s="224"/>
+      <c r="C151" s="224"/>
+      <c r="D151" s="224"/>
+      <c r="E151" s="223"/>
+      <c r="F151" s="224"/>
+      <c r="G151" s="224"/>
+      <c r="H151" s="225"/>
+      <c r="I151" s="226"/>
+      <c r="J151" s="105"/>
+    </row>
+    <row r="152" spans="1:10" s="182" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B152" s="182" t="s">
         <v>609</v>
       </c>
-      <c r="C130" s="117" t="s">
+    </row>
+    <row r="153" spans="1:10" s="213" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A153" s="214"/>
+      <c r="B153" s="215" t="s">
         <v>610</v>
       </c>
-      <c r="D130" s="117" t="s">
+      <c r="C153" s="216"/>
+      <c r="D153" s="216"/>
+      <c r="E153" s="216"/>
+      <c r="F153" s="216"/>
+      <c r="G153" s="216"/>
+      <c r="H153" s="216"/>
+      <c r="I153" s="216"/>
+    </row>
+    <row r="154" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A154" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A153)+1)</f>
+        <v>ID-108</v>
+      </c>
+      <c r="B154" s="117" t="s">
         <v>611</v>
       </c>
-      <c r="E130" s="118"/>
-      <c r="F130" s="117"/>
-      <c r="G130" s="117"/>
-      <c r="H130" s="119"/>
-      <c r="I130" s="120"/>
-      <c r="J130" s="105"/>
-    </row>
-    <row r="131" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A131" s="168" t="str">
-        <f>IF(OR(B131&lt;&gt;"",D131&lt;E127&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-121]</v>
-      </c>
-      <c r="B131" s="117" t="s">
+      <c r="C154" s="117" t="s">
         <v>612</v>
       </c>
-      <c r="C131" s="117" t="s">
+      <c r="D154" s="117" t="s">
         <v>613</v>
       </c>
-      <c r="D131" s="117" t="s">
+      <c r="E154" s="117"/>
+      <c r="F154" s="117"/>
+      <c r="G154" s="117"/>
+      <c r="H154" s="117"/>
+      <c r="I154" s="217" t="s">
         <v>614</v>
       </c>
-      <c r="E131" s="168"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117"/>
-      <c r="H131" s="119"/>
-      <c r="I131" s="120"/>
-      <c r="J131" s="105"/>
-    </row>
-    <row r="132" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A132" s="241"/>
-      <c r="B132" s="242"/>
-      <c r="C132" s="242"/>
-      <c r="D132" s="242"/>
-      <c r="E132" s="241"/>
-      <c r="F132" s="242"/>
-      <c r="G132" s="242"/>
-      <c r="H132" s="243"/>
-      <c r="I132" s="244"/>
-      <c r="J132" s="105"/>
-    </row>
-    <row r="133" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A133" s="241"/>
-      <c r="B133" s="242"/>
-      <c r="C133" s="242"/>
-      <c r="D133" s="242"/>
-      <c r="E133" s="241"/>
-      <c r="F133" s="242"/>
-      <c r="G133" s="242"/>
-      <c r="H133" s="243"/>
-      <c r="I133" s="244"/>
-      <c r="J133" s="105"/>
-    </row>
-    <row r="134" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A134" s="241"/>
-      <c r="B134" s="242"/>
-      <c r="C134" s="242"/>
-      <c r="D134" s="242"/>
-      <c r="E134" s="241"/>
-      <c r="F134" s="242"/>
-      <c r="G134" s="242"/>
-      <c r="H134" s="243"/>
-      <c r="I134" s="244"/>
-      <c r="J134" s="105"/>
-    </row>
-    <row r="135" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A135" s="241"/>
-      <c r="B135" s="242"/>
-      <c r="C135" s="242"/>
-      <c r="D135" s="242"/>
-      <c r="E135" s="241"/>
-      <c r="F135" s="242"/>
-      <c r="G135" s="242"/>
-      <c r="H135" s="243"/>
-      <c r="I135" s="244"/>
-      <c r="J135" s="105"/>
-    </row>
-    <row r="136" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A136" s="241"/>
-      <c r="B136" s="242"/>
-      <c r="C136" s="242"/>
-      <c r="D136" s="242"/>
-      <c r="E136" s="241"/>
-      <c r="F136" s="242"/>
-      <c r="G136" s="242"/>
-      <c r="H136" s="243"/>
-      <c r="I136" s="244"/>
-      <c r="J136" s="105"/>
-    </row>
-    <row r="137" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A137" s="241"/>
-      <c r="B137" s="242"/>
-      <c r="C137" s="242"/>
-      <c r="D137" s="242"/>
-      <c r="E137" s="241"/>
-      <c r="F137" s="242"/>
-      <c r="G137" s="242"/>
-      <c r="H137" s="243"/>
-      <c r="I137" s="244"/>
-      <c r="J137" s="105"/>
-    </row>
-    <row r="138" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A138" s="241"/>
-      <c r="B138" s="242"/>
-      <c r="C138" s="242"/>
-      <c r="D138" s="242"/>
-      <c r="E138" s="241"/>
-      <c r="F138" s="242"/>
-      <c r="G138" s="242"/>
-      <c r="H138" s="243"/>
-      <c r="I138" s="244"/>
-      <c r="J138" s="105"/>
-    </row>
-    <row r="139" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A139" s="241"/>
-      <c r="B139" s="242"/>
-      <c r="C139" s="242"/>
-      <c r="D139" s="242"/>
-      <c r="E139" s="241"/>
-      <c r="F139" s="242"/>
-      <c r="G139" s="242"/>
-      <c r="H139" s="243"/>
-      <c r="I139" s="244"/>
-      <c r="J139" s="105"/>
-    </row>
-    <row r="140" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A140" s="241"/>
-      <c r="B140" s="242"/>
-      <c r="C140" s="242"/>
-      <c r="D140" s="242"/>
-      <c r="E140" s="241"/>
-      <c r="F140" s="242"/>
-      <c r="G140" s="242"/>
-      <c r="H140" s="243"/>
-      <c r="I140" s="244"/>
-      <c r="J140" s="105"/>
-    </row>
-    <row r="141" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A141" s="241"/>
-      <c r="B141" s="242"/>
-      <c r="C141" s="242"/>
-      <c r="D141" s="242"/>
-      <c r="E141" s="241"/>
-      <c r="F141" s="242"/>
-      <c r="G141" s="242"/>
-      <c r="H141" s="243"/>
-      <c r="I141" s="244"/>
-      <c r="J141" s="105"/>
-    </row>
-    <row r="142" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A142" s="241"/>
-      <c r="B142" s="242"/>
-      <c r="C142" s="242"/>
-      <c r="D142" s="242"/>
-      <c r="E142" s="241"/>
-      <c r="F142" s="242"/>
-      <c r="G142" s="242"/>
-      <c r="H142" s="243"/>
-      <c r="I142" s="244"/>
-      <c r="J142" s="105"/>
-    </row>
-    <row r="143" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A143" s="241"/>
-      <c r="B143" s="242"/>
-      <c r="C143" s="242"/>
-      <c r="D143" s="242"/>
-      <c r="E143" s="241"/>
-      <c r="F143" s="242"/>
-      <c r="G143" s="242"/>
-      <c r="H143" s="243"/>
-      <c r="I143" s="244"/>
-      <c r="J143" s="105"/>
-    </row>
-    <row r="144" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A144" s="241"/>
-      <c r="B144" s="242"/>
-      <c r="C144" s="242"/>
-      <c r="D144" s="242"/>
-      <c r="E144" s="241"/>
-      <c r="F144" s="242"/>
-      <c r="G144" s="242"/>
-      <c r="H144" s="243"/>
-      <c r="I144" s="244"/>
-      <c r="J144" s="105"/>
-    </row>
-    <row r="145" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A145" s="241"/>
-      <c r="B145" s="242"/>
-      <c r="C145" s="242"/>
-      <c r="D145" s="242"/>
-      <c r="E145" s="241"/>
-      <c r="F145" s="242"/>
-      <c r="G145" s="242"/>
-      <c r="H145" s="243"/>
-      <c r="I145" s="244"/>
-      <c r="J145" s="105"/>
-    </row>
-    <row r="146" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A146" s="241"/>
-      <c r="B146" s="242"/>
-      <c r="C146" s="242"/>
-      <c r="D146" s="242"/>
-      <c r="E146" s="241"/>
-      <c r="F146" s="242"/>
-      <c r="G146" s="242"/>
-      <c r="H146" s="243"/>
-      <c r="I146" s="244"/>
-      <c r="J146" s="105"/>
-    </row>
-    <row r="147" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A147" s="241"/>
-      <c r="B147" s="242"/>
-      <c r="C147" s="242"/>
-      <c r="D147" s="242"/>
-      <c r="E147" s="241"/>
-      <c r="F147" s="242"/>
-      <c r="G147" s="242"/>
-      <c r="H147" s="243"/>
-      <c r="I147" s="244"/>
-      <c r="J147" s="105"/>
-    </row>
-    <row r="148" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A148" s="241"/>
-      <c r="B148" s="242"/>
-      <c r="C148" s="242"/>
-      <c r="D148" s="242"/>
-      <c r="E148" s="241"/>
-      <c r="F148" s="242"/>
-      <c r="G148" s="242"/>
-      <c r="H148" s="243"/>
-      <c r="I148" s="244"/>
-      <c r="J148" s="105"/>
-    </row>
-    <row r="149" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A149" s="241"/>
-      <c r="B149" s="242"/>
-      <c r="C149" s="242"/>
-      <c r="D149" s="242"/>
-      <c r="E149" s="241"/>
-      <c r="F149" s="242"/>
-      <c r="G149" s="242"/>
-      <c r="H149" s="243"/>
-      <c r="I149" s="244"/>
-      <c r="J149" s="105"/>
-    </row>
-    <row r="150" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A150" s="241"/>
-      <c r="B150" s="242"/>
-      <c r="C150" s="242"/>
-      <c r="D150" s="242"/>
-      <c r="E150" s="241"/>
-      <c r="F150" s="242"/>
-      <c r="G150" s="242"/>
-      <c r="H150" s="243"/>
-      <c r="I150" s="244"/>
-      <c r="J150" s="105"/>
-    </row>
-    <row r="151" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A151" s="241"/>
-      <c r="B151" s="242"/>
-      <c r="C151" s="242"/>
-      <c r="D151" s="242"/>
-      <c r="E151" s="241"/>
-      <c r="F151" s="242"/>
-      <c r="G151" s="242"/>
-      <c r="H151" s="243"/>
-      <c r="I151" s="244"/>
-      <c r="J151" s="105"/>
-    </row>
-    <row r="152" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A152" s="241"/>
-      <c r="B152" s="242"/>
-      <c r="C152" s="242"/>
-      <c r="D152" s="242"/>
-      <c r="E152" s="241"/>
-      <c r="F152" s="242"/>
-      <c r="G152" s="242"/>
-      <c r="H152" s="243"/>
-      <c r="I152" s="244"/>
-      <c r="J152" s="105"/>
-    </row>
-    <row r="153" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A153" s="241"/>
-      <c r="B153" s="242"/>
-      <c r="C153" s="242"/>
-      <c r="D153" s="242"/>
-      <c r="E153" s="241"/>
-      <c r="F153" s="242"/>
-      <c r="G153" s="242"/>
-      <c r="H153" s="243"/>
-      <c r="I153" s="244"/>
-      <c r="J153" s="105"/>
-    </row>
-    <row r="154" spans="1:10" s="182" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B154" s="182" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" s="213" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A155" s="214"/>
-      <c r="B155" s="215" t="s">
-        <v>616</v>
-      </c>
-      <c r="C155" s="216"/>
-      <c r="D155" s="216"/>
-      <c r="E155" s="216"/>
-      <c r="F155" s="216"/>
-      <c r="G155" s="216"/>
-      <c r="H155" s="216"/>
-      <c r="I155" s="216"/>
+    </row>
+    <row r="155" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A155" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A154)+1)</f>
+        <v>ID-109</v>
+      </c>
+      <c r="B155" s="117" t="s">
+        <v>651</v>
+      </c>
+      <c r="C155" s="117" t="s">
+        <v>652</v>
+      </c>
+      <c r="D155" s="117" t="s">
+        <v>613</v>
+      </c>
+      <c r="E155" s="117"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="217" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="156" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
       <c r="A156" s="117" t="str">
@@ -19595,20 +19571,20 @@
         <v>ID-110</v>
       </c>
       <c r="B156" s="117" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="C156" s="117" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="D156" s="117" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E156" s="117"/>
       <c r="F156" s="117"/>
       <c r="G156" s="117"/>
       <c r="H156" s="117"/>
       <c r="I156" s="217" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
@@ -19617,20 +19593,20 @@
         <v>ID-111</v>
       </c>
       <c r="B157" s="117" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C157" s="117" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D157" s="117" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E157" s="117"/>
       <c r="F157" s="117"/>
       <c r="G157" s="117"/>
       <c r="H157" s="117"/>
       <c r="I157" s="217" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
@@ -19639,20 +19615,20 @@
         <v>ID-112</v>
       </c>
       <c r="B158" s="117" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C158" s="117" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D158" s="117" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E158" s="117"/>
       <c r="F158" s="117"/>
       <c r="G158" s="117"/>
       <c r="H158" s="117"/>
       <c r="I158" s="217" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
@@ -19661,69 +19637,69 @@
         <v>ID-113</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D159" s="117" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E159" s="117"/>
       <c r="F159" s="117"/>
       <c r="G159" s="117"/>
       <c r="H159" s="117"/>
-      <c r="I159" s="217" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" s="218" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A160" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A159)+1)</f>
-        <v>ID-114</v>
-      </c>
-      <c r="B160" s="117" t="s">
-        <v>663</v>
-      </c>
-      <c r="C160" s="117" t="s">
-        <v>664</v>
-      </c>
-      <c r="D160" s="117" t="s">
-        <v>619</v>
-      </c>
-      <c r="E160" s="117"/>
-      <c r="F160" s="117"/>
-      <c r="G160" s="117"/>
-      <c r="H160" s="117"/>
-      <c r="I160" s="217" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="218" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I159" s="117" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="182" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B160" s="182" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="219" customFormat="1" ht="14.25" customHeight="1">
       <c r="A161" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A160)+1)</f>
-        <v>ID-115</v>
+        <v>ID-114</v>
       </c>
       <c r="B161" s="117" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
       <c r="C161" s="117" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D161" s="117" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="E161" s="117"/>
       <c r="F161" s="117"/>
       <c r="G161" s="117"/>
       <c r="H161" s="117"/>
       <c r="I161" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="182" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B162" s="182" t="s">
-        <v>621</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="219" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A162" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A161)+1)</f>
+        <v>ID-115</v>
+      </c>
+      <c r="B162" s="117" t="s">
+        <v>617</v>
+      </c>
+      <c r="C162" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="D162" s="117" t="s">
+        <v>619</v>
+      </c>
+      <c r="E162" s="117"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="117"/>
+      <c r="H162" s="117"/>
+      <c r="I162" s="117" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="219" customFormat="1" ht="14.25" customHeight="1">
@@ -19732,86 +19708,86 @@
         <v>ID-116</v>
       </c>
       <c r="B163" s="117" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C163" s="117" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
       <c r="D163" s="117" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="E163" s="117"/>
       <c r="F163" s="117"/>
       <c r="G163" s="117"/>
       <c r="H163" s="117"/>
       <c r="I163" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="219" customFormat="1" ht="14.25" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="218" customFormat="1" ht="14.25" customHeight="1">
       <c r="A164" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A163)+1)</f>
         <v>ID-117</v>
       </c>
       <c r="B164" s="117" t="s">
+        <v>622</v>
+      </c>
+      <c r="C164" s="117" t="s">
         <v>623</v>
       </c>
-      <c r="C164" s="117" t="s">
-        <v>624</v>
-      </c>
       <c r="D164" s="117" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="E164" s="117"/>
       <c r="F164" s="117"/>
       <c r="G164" s="117"/>
       <c r="H164" s="117"/>
       <c r="I164" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="219" customFormat="1" ht="14.25" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
       <c r="A165" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A164)+1)</f>
         <v>ID-118</v>
       </c>
       <c r="B165" s="117" t="s">
+        <v>624</v>
+      </c>
+      <c r="C165" s="117" t="s">
+        <v>625</v>
+      </c>
+      <c r="D165" s="117" t="s">
         <v>626</v>
-      </c>
-      <c r="C165" s="117" t="s">
-        <v>624</v>
-      </c>
-      <c r="D165" s="117" t="s">
-        <v>627</v>
       </c>
       <c r="E165" s="117"/>
       <c r="F165" s="117"/>
       <c r="G165" s="117"/>
       <c r="H165" s="117"/>
       <c r="I165" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="218" customFormat="1" ht="14.25" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
       <c r="A166" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A165)+1)</f>
         <v>ID-119</v>
       </c>
       <c r="B166" s="117" t="s">
+        <v>627</v>
+      </c>
+      <c r="C166" s="117" t="s">
         <v>628</v>
       </c>
-      <c r="C166" s="117" t="s">
+      <c r="D166" s="117" t="s">
         <v>629</v>
-      </c>
-      <c r="D166" s="117" t="s">
-        <v>669</v>
       </c>
       <c r="E166" s="117"/>
       <c r="F166" s="117"/>
       <c r="G166" s="117"/>
       <c r="H166" s="117"/>
       <c r="I166" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19833,7 +19809,7 @@
       <c r="G167" s="117"/>
       <c r="H167" s="117"/>
       <c r="I167" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19855,7 +19831,7 @@
       <c r="G168" s="117"/>
       <c r="H168" s="117"/>
       <c r="I168" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19877,7 +19853,7 @@
       <c r="G169" s="117"/>
       <c r="H169" s="117"/>
       <c r="I169" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19899,7 +19875,7 @@
       <c r="G170" s="117"/>
       <c r="H170" s="117"/>
       <c r="I170" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19921,7 +19897,7 @@
       <c r="G171" s="117"/>
       <c r="H171" s="117"/>
       <c r="I171" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19943,7 +19919,7 @@
       <c r="G172" s="117"/>
       <c r="H172" s="117"/>
       <c r="I172" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
@@ -19965,51 +19941,7 @@
       <c r="G173" s="117"/>
       <c r="H173" s="117"/>
       <c r="I173" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A174" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A173)+1)</f>
-        <v>ID-127</v>
-      </c>
-      <c r="B174" s="117" t="s">
-        <v>651</v>
-      </c>
-      <c r="C174" s="117" t="s">
-        <v>652</v>
-      </c>
-      <c r="D174" s="117" t="s">
-        <v>653</v>
-      </c>
-      <c r="E174" s="117"/>
-      <c r="F174" s="117"/>
-      <c r="G174" s="117"/>
-      <c r="H174" s="117"/>
-      <c r="I174" s="117" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="213" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A175" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A174)+1)</f>
-        <v>ID-128</v>
-      </c>
-      <c r="B175" s="117" t="s">
-        <v>654</v>
-      </c>
-      <c r="C175" s="117" t="s">
-        <v>655</v>
-      </c>
-      <c r="D175" s="117" t="s">
-        <v>656</v>
-      </c>
-      <c r="E175" s="117"/>
-      <c r="F175" s="117"/>
-      <c r="G175" s="117"/>
-      <c r="H175" s="117"/>
-      <c r="I175" s="117" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -20026,17 +19958,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G23 G1:G9 F112:F124 F20:F23 G121:G124 G176:G65406 F25 F27:F29 F35:F36 F38:F40 F42:F52 F54:F72 F74:F84 F86:F110 F12:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G23 G1:G9 F110:F122 F20:F23 G119:G122 G174:G65404 F25 F27:F29 F35:F36 F38:F40 F72:F82 F84:F108 F12:F18 F42:F51 F53:F70">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G25 G74:G84 G54:G72 G42:G52 G38:G40 G31:G33 G27:G29 G35:G36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G25 G72:G82 G38:G40 G31:G33 G27:G29 G35:G36 G42:G51 G53:G70">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F126:G153 G112:G120 G86:G110">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F124:G151 G110:G118 G84:G108">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156:I161 IT156:JA161 SP156:SW161 ACL156:ACS161 AMH156:AMO161 AWD156:AWK161 BFZ156:BGG161 BPV156:BQC161 BZR156:BZY161 CJN156:CJU161 CTJ156:CTQ161 DDF156:DDM161 DNB156:DNI161 DWX156:DXE161 EGT156:EHA161 EQP156:EQW161 FAL156:FAS161 FKH156:FKO161 FUD156:FUK161 GDZ156:GEG161 GNV156:GOC161 GXR156:GXY161 HHN156:HHU161 HRJ156:HRQ161 IBF156:IBM161 ILB156:ILI161 IUX156:IVE161 JET156:JFA161 JOP156:JOW161 JYL156:JYS161 KIH156:KIO161 KSD156:KSK161 LBZ156:LCG161 LLV156:LMC161 LVR156:LVY161 MFN156:MFU161 MPJ156:MPQ161 MZF156:MZM161 NJB156:NJI161 NSX156:NTE161 OCT156:ODA161 OMP156:OMW161 OWL156:OWS161 PGH156:PGO161 PQD156:PQK161 PZZ156:QAG161 QJV156:QKC161 QTR156:QTY161 RDN156:RDU161 RNJ156:RNQ161 RXF156:RXM161 SHB156:SHI161 SQX156:SRE161 TAT156:TBA161 TKP156:TKW161 TUL156:TUS161 UEH156:UEO161 UOD156:UOK161 UXZ156:UYG161 VHV156:VIC161 VRR156:VRY161 WBN156:WBU161 WLJ156:WLQ161 WVF156:WVM161 JD154:JD175 SZ154:SZ175 ACV154:ACV175 AMR154:AMR175 AWN154:AWN175 BGJ154:BGJ175 BQF154:BQF175 CAB154:CAB175 CJX154:CJX175 CTT154:CTT175 DDP154:DDP175 DNL154:DNL175 DXH154:DXH175 EHD154:EHD175 EQZ154:EQZ175 FAV154:FAV175 FKR154:FKR175 FUN154:FUN175 GEJ154:GEJ175 GOF154:GOF175 GYB154:GYB175 HHX154:HHX175 HRT154:HRT175 IBP154:IBP175 ILL154:ILL175 IVH154:IVH175 JFD154:JFD175 JOZ154:JOZ175 JYV154:JYV175 KIR154:KIR175 KSN154:KSN175 LCJ154:LCJ175 LMF154:LMF175 LWB154:LWB175 MFX154:MFX175 MPT154:MPT175 MZP154:MZP175 NJL154:NJL175 NTH154:NTH175 ODD154:ODD175 OMZ154:OMZ175 OWV154:OWV175 PGR154:PGR175 PQN154:PQN175 QAJ154:QAJ175 QKF154:QKF175 QUB154:QUB175 RDX154:RDX175 RNT154:RNT175 RXP154:RXP175 SHL154:SHL175 SRH154:SRH175 TBD154:TBD175 TKZ154:TKZ175 TUV154:TUV175 UER154:UER175 UON154:UON175 UYJ154:UYJ175 VIF154:VIF175 VSB154:VSB175 WBX154:WBX175 WLT154:WLT175 WVP154:WVP175 WLJ163:WLQ175 WBN163:WBU175 VRR163:VRY175 VHV163:VIC175 UXZ163:UYG175 UOD163:UOK175 UEH163:UEO175 TUL163:TUS175 TKP163:TKW175 TAT163:TBA175 SQX163:SRE175 SHB163:SHI175 RXF163:RXM175 RNJ163:RNQ175 RDN163:RDU175 QTR163:QTY175 QJV163:QKC175 PZZ163:QAG175 PQD163:PQK175 PGH163:PGO175 OWL163:OWS175 OMP163:OMW175 OCT163:ODA175 NSX163:NTE175 NJB163:NJI175 MZF163:MZM175 MPJ163:MPQ175 MFN163:MFU175 LVR163:LVY175 LLV163:LMC175 LBZ163:LCG175 KSD163:KSK175 KIH163:KIO175 JYL163:JYS175 JOP163:JOW175 JET163:JFA175 IUX163:IVE175 ILB163:ILI175 IBF163:IBM175 HRJ163:HRQ175 HHN163:HHU175 GXR163:GXY175 GNV163:GOC175 GDZ163:GEG175 FUD163:FUK175 FKH163:FKO175 FAL163:FAS175 EQP163:EQW175 EGT163:EHA175 DWX163:DXE175 DNB163:DNI175 DDF163:DDM175 CTJ163:CTQ175 CJN163:CJU175 BZR163:BZY175 BPV163:BQC175 BFZ163:BGG175 AWD163:AWK175 AMH163:AMO175 ACL163:ACS175 SP163:SW175 IT163:JA175 E163:I175 WVF163:WVM175">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154:I159 IT154:JA159 SP154:SW159 ACL154:ACS159 AMH154:AMO159 AWD154:AWK159 BFZ154:BGG159 BPV154:BQC159 BZR154:BZY159 CJN154:CJU159 CTJ154:CTQ159 DDF154:DDM159 DNB154:DNI159 DWX154:DXE159 EGT154:EHA159 EQP154:EQW159 FAL154:FAS159 FKH154:FKO159 FUD154:FUK159 GDZ154:GEG159 GNV154:GOC159 GXR154:GXY159 HHN154:HHU159 HRJ154:HRQ159 IBF154:IBM159 ILB154:ILI159 IUX154:IVE159 JET154:JFA159 JOP154:JOW159 JYL154:JYS159 KIH154:KIO159 KSD154:KSK159 LBZ154:LCG159 LLV154:LMC159 LVR154:LVY159 MFN154:MFU159 MPJ154:MPQ159 MZF154:MZM159 NJB154:NJI159 NSX154:NTE159 OCT154:ODA159 OMP154:OMW159 OWL154:OWS159 PGH154:PGO159 PQD154:PQK159 PZZ154:QAG159 QJV154:QKC159 QTR154:QTY159 RDN154:RDU159 RNJ154:RNQ159 RXF154:RXM159 SHB154:SHI159 SQX154:SRE159 TAT154:TBA159 TKP154:TKW159 TUL154:TUS159 UEH154:UEO159 UOD154:UOK159 UXZ154:UYG159 VHV154:VIC159 VRR154:VRY159 WBN154:WBU159 WLJ154:WLQ159 WVF154:WVM159 JD152:JD173 SZ152:SZ173 ACV152:ACV173 AMR152:AMR173 AWN152:AWN173 BGJ152:BGJ173 BQF152:BQF173 CAB152:CAB173 CJX152:CJX173 CTT152:CTT173 DDP152:DDP173 DNL152:DNL173 DXH152:DXH173 EHD152:EHD173 EQZ152:EQZ173 FAV152:FAV173 FKR152:FKR173 FUN152:FUN173 GEJ152:GEJ173 GOF152:GOF173 GYB152:GYB173 HHX152:HHX173 HRT152:HRT173 IBP152:IBP173 ILL152:ILL173 IVH152:IVH173 JFD152:JFD173 JOZ152:JOZ173 JYV152:JYV173 KIR152:KIR173 KSN152:KSN173 LCJ152:LCJ173 LMF152:LMF173 LWB152:LWB173 MFX152:MFX173 MPT152:MPT173 MZP152:MZP173 NJL152:NJL173 NTH152:NTH173 ODD152:ODD173 OMZ152:OMZ173 OWV152:OWV173 PGR152:PGR173 PQN152:PQN173 QAJ152:QAJ173 QKF152:QKF173 QUB152:QUB173 RDX152:RDX173 RNT152:RNT173 RXP152:RXP173 SHL152:SHL173 SRH152:SRH173 TBD152:TBD173 TKZ152:TKZ173 TUV152:TUV173 UER152:UER173 UON152:UON173 UYJ152:UYJ173 VIF152:VIF173 VSB152:VSB173 WBX152:WBX173 WLT152:WLT173 WVP152:WVP173 WLJ161:WLQ173 WBN161:WBU173 VRR161:VRY173 VHV161:VIC173 UXZ161:UYG173 UOD161:UOK173 UEH161:UEO173 TUL161:TUS173 TKP161:TKW173 TAT161:TBA173 SQX161:SRE173 SHB161:SHI173 RXF161:RXM173 RNJ161:RNQ173 RDN161:RDU173 QTR161:QTY173 QJV161:QKC173 PZZ161:QAG173 PQD161:PQK173 PGH161:PGO173 OWL161:OWS173 OMP161:OMW173 OCT161:ODA173 NSX161:NTE173 NJB161:NJI173 MZF161:MZM173 MPJ161:MPQ173 MFN161:MFU173 LVR161:LVY173 LLV161:LMC173 LBZ161:LCG173 KSD161:KSK173 KIH161:KIO173 JYL161:JYS173 JOP161:JOW173 JET161:JFA173 IUX161:IVE173 ILB161:ILI173 IBF161:IBM173 HRJ161:HRQ173 HHN161:HHU173 GXR161:GXY173 GNV161:GOC173 GDZ161:GEG173 FUD161:FUK173 FKH161:FKO173 FAL161:FAS173 EQP161:EQW173 EGT161:EHA173 DWX161:DXE173 DNB161:DNI173 DDF161:DDM173 CTJ161:CTQ173 CJN161:CJU173 BZR161:BZY173 BPV161:BQC173 BFZ161:BGG173 AWD161:AWK173 AMH161:AMO173 ACL161:ACS173 SP161:SW173 IT161:JA173 E161:I173 WVF161:WVM173">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20053,7 +19985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -20075,7 +20009,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="138" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="139" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
@@ -20088,46 +20022,46 @@
       <c r="A2" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="138" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="232" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+        <v>525</v>
+      </c>
+      <c r="B3" s="239" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="138" customFormat="1" ht="14.25">
       <c r="A4" s="142" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" s="233" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="240" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="138" customFormat="1" ht="14.25">
@@ -20138,16 +20072,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="237" t="s">
-        <v>535</v>
-      </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
+      <c r="E5" s="244" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -20169,12 +20103,12 @@
         <f>COUNTIF(F11:G756,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="235">
+      <c r="E6" s="242">
         <f>COUNTA(A11:A313)*2</f>
         <v>112</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -20205,16 +20139,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>112</v>
@@ -20223,7 +20157,7 @@
         <v>113</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -20231,16 +20165,16 @@
     </row>
     <row r="11" spans="1:10" s="138" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="198"/>
-      <c r="B11" s="236" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="236"/>
+      <c r="B11" s="243" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="171" t="str">
@@ -20248,13 +20182,13 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E12" s="199"/>
       <c r="F12" s="117"/>
@@ -20274,10 +20208,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E13" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -20290,16 +20224,16 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E14" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -20312,16 +20246,16 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E15" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -20343,7 +20277,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -20359,13 +20293,13 @@
         <v>69</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D17" s="117" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -20381,13 +20315,13 @@
         <v>71</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D18" s="117" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -20409,7 +20343,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -20431,7 +20365,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="201" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -20442,7 +20376,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="204"/>
       <c r="B21" s="205" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C21" s="204"/>
       <c r="D21" s="204"/>
@@ -20459,16 +20393,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E22" s="207" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -20482,16 +20416,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D23" s="208" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E23" s="207" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -20505,16 +20439,16 @@
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="117" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C24" s="117" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D24" s="208" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E24" s="207" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
@@ -20525,7 +20459,7 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="204"/>
       <c r="B25" s="205" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C25" s="204"/>
       <c r="D25" s="204"/>
@@ -20542,16 +20476,16 @@
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C26" s="117" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D26" s="208" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E26" s="207" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F26" s="117"/>
       <c r="G26" s="117"/>
@@ -20562,7 +20496,7 @@
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" s="204"/>
       <c r="B27" s="205" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C27" s="204"/>
       <c r="D27" s="204"/>
@@ -20579,13 +20513,13 @@
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C28" s="117" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D28" s="208" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E28" s="207"/>
       <c r="F28" s="117"/>
@@ -20600,13 +20534,13 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D29" s="208" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E29" s="207"/>
       <c r="F29" s="117"/>
@@ -20621,13 +20555,13 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D30" s="208" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E30" s="207"/>
       <c r="F30" s="117"/>
@@ -20642,13 +20576,13 @@
         <v>[Admin_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D31" s="208" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E31" s="207"/>
       <c r="F31" s="117"/>
@@ -20663,13 +20597,13 @@
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D32" s="208" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E32" s="207"/>
       <c r="F32" s="117"/>
@@ -20684,13 +20618,13 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D33" s="208" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E33" s="207"/>
       <c r="F33" s="117"/>
@@ -20702,7 +20636,7 @@
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="204"/>
       <c r="B34" s="205" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C34" s="204"/>
       <c r="D34" s="204"/>
@@ -20719,13 +20653,13 @@
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D35" s="208" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E35" s="207"/>
       <c r="F35" s="117"/>
@@ -20740,13 +20674,13 @@
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D36" s="208" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E36" s="207"/>
       <c r="F36" s="117"/>
@@ -20761,13 +20695,13 @@
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D37" s="208" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E37" s="207"/>
       <c r="F37" s="117"/>
@@ -20782,13 +20716,13 @@
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D38" s="208" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E38" s="207"/>
       <c r="F38" s="117"/>
@@ -20803,13 +20737,13 @@
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C39" s="117" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D39" s="208" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E39" s="207"/>
       <c r="F39" s="117"/>
@@ -20824,13 +20758,13 @@
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D40" s="208" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E40" s="207"/>
       <c r="F40" s="117"/>
@@ -20845,13 +20779,13 @@
         <v>[Admin_login-31]</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C41" s="117" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D41" s="208" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E41" s="207"/>
       <c r="F41" s="117"/>
@@ -20866,13 +20800,13 @@
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D42" s="208" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E42" s="207"/>
       <c r="F42" s="117"/>
@@ -20884,7 +20818,7 @@
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="204"/>
       <c r="B43" s="205" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C43" s="204"/>
       <c r="D43" s="204"/>
@@ -20901,13 +20835,13 @@
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D44" s="208" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E44" s="207"/>
       <c r="F44" s="117"/>
@@ -20922,13 +20856,13 @@
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D45" s="208" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E45" s="207"/>
       <c r="F45" s="117"/>
@@ -20943,13 +20877,13 @@
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D46" s="208" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E46" s="207"/>
       <c r="F46" s="117"/>
@@ -20961,7 +20895,7 @@
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="204"/>
       <c r="B47" s="205" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C47" s="204"/>
       <c r="D47" s="204"/>
@@ -20978,13 +20912,13 @@
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D48" s="208" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E48" s="207"/>
       <c r="F48" s="117"/>
@@ -20999,13 +20933,13 @@
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D49" s="208" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E49" s="207"/>
       <c r="F49" s="117"/>
@@ -21020,13 +20954,13 @@
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D50" s="208" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E50" s="207"/>
       <c r="F50" s="117"/>
@@ -21038,7 +20972,7 @@
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="204"/>
       <c r="B51" s="205" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C51" s="204"/>
       <c r="D51" s="204"/>
@@ -21055,13 +20989,13 @@
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E52" s="207"/>
       <c r="F52" s="117"/>
@@ -21076,13 +21010,13 @@
         <v>[Admin_login-43]</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C53" s="117" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D53" s="117" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E53" s="207"/>
       <c r="F53" s="117"/>
@@ -21097,13 +21031,13 @@
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E54" s="207"/>
       <c r="F54" s="117"/>
@@ -21118,13 +21052,13 @@
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E55" s="207"/>
       <c r="F55" s="117"/>
@@ -21139,13 +21073,13 @@
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E56" s="207"/>
       <c r="F56" s="117"/>
@@ -21160,13 +21094,13 @@
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E57" s="207"/>
       <c r="F57" s="117"/>
@@ -21181,13 +21115,13 @@
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E58" s="207"/>
       <c r="F58" s="117"/>
@@ -21202,13 +21136,13 @@
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D59" s="117" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E59" s="207"/>
       <c r="F59" s="117"/>
@@ -21223,13 +21157,13 @@
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D60" s="117" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E60" s="207"/>
       <c r="F60" s="117"/>
@@ -21244,13 +21178,13 @@
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D61" s="117" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E61" s="207"/>
       <c r="F61" s="117"/>
@@ -21265,13 +21199,13 @@
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D62" s="117" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E62" s="207"/>
       <c r="F62" s="117"/>
@@ -21286,13 +21220,13 @@
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E63" s="207"/>
       <c r="F63" s="117"/>
@@ -21307,13 +21241,13 @@
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E64" s="177"/>
       <c r="F64" s="117"/>
@@ -21328,13 +21262,13 @@
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E65" s="177"/>
       <c r="F65" s="117"/>
@@ -21349,13 +21283,13 @@
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E66" s="177"/>
       <c r="F66" s="117"/>
@@ -21367,7 +21301,7 @@
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="204"/>
       <c r="B67" s="205" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C67" s="204"/>
       <c r="D67" s="204"/>
@@ -21384,13 +21318,13 @@
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D68" s="208" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E68" s="177"/>
       <c r="F68" s="117"/>
@@ -21405,13 +21339,13 @@
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D69" s="208" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E69" s="177"/>
       <c r="F69" s="117"/>
@@ -21426,13 +21360,13 @@
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D70" s="208" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E70" s="177"/>
       <c r="F70" s="117"/>
@@ -21447,13 +21381,13 @@
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D71" s="208" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E71" s="177"/>
       <c r="F71" s="117"/>
@@ -21468,13 +21402,13 @@
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D72" s="208" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E72" s="177"/>
       <c r="F72" s="117"/>
@@ -21489,13 +21423,13 @@
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D73" s="208" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E73" s="177"/>
       <c r="F73" s="117"/>
@@ -21510,13 +21444,13 @@
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D74" s="208" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E74" s="177"/>
       <c r="F74" s="117"/>
@@ -21531,13 +21465,13 @@
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D75" s="208" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E75" s="177"/>
       <c r="F75" s="117"/>
